--- a/paper_database.xlsx
+++ b/paper_database.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="34" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
@@ -693,7 +693,7 @@
       <c r="U2" s="2" t="inlineStr"/>
       <c r="V2" s="2" t="inlineStr">
         <is>
-          <t>2025-12-12 22:58:43</t>
+          <t>2025-12-17 01:30:47</t>
         </is>
       </c>
       <c r="W2" s="2" t="b">
@@ -701,74 +701,74 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>10.1009/s13278-075-01428-9</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>[💥冲突] [💥冲突] 10.1009/s13278-075-01428-9</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>s</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>123222</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>123123333</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>make_cot_strong</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>[AI generated] This paper aims to explore the potential of LLMs to revolutionize data analysis and content generation in computational social science.
 [翻译]
 本文旨在探索大语言模型在计算社会科学中革新数据分析和内容生成的潜力。</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>[AI generated] The paper innovatively explores the potential of LLMs to revolutionize data analysis and content generation within computational social science.
 [翻译]
 该论文创新性地探索了大语言模型在计算社会科学领域革新数据分析和内容生成的潜力。</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>[AI generated] The paper reviews and synthesizes existing applications of LLMs across various CSS tasks, analyzing their capabilities and limitations.
 [翻译]
 本文回顾并综合了LLM在各类CSS任务中的现有应用，分析了其能力与局限。</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
         <is>
           <t>https://www.nature.com/articles/s41599-024-03611-3rteenth International Conference on Learning Representations</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr">
         <is>
           <t>The Fourteenth International Conference on Learning Representations</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="2" t="inlineStr">
         <is>
           <t>[AI generated] **中文标题：** 大语言模型在计算社会科学中的应用：前景、现状与挑战
 **说明：** 此翻译准确传达了原标题的核心信息，符合中文论文标题的学术规范，结构清晰、专业。其中：
@@ -777,102 +777,306 @@
 *   "prospects, current state,</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="2" t="inlineStr">
         <is>
           <t>[AI generated] Large language models act as a powerful computational telescope, magnifying social patterns from vast text data. [翻译]大语言模型如同一台强大的计算望远镜，从海量文本数据中放大社会模式。</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
+      <c r="P3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="inlineStr">
         <is>
           <t>Abstract
             The advent of large language models (LLMs) has marked a new era in the transformation of computational social science (CSS). This paper dives into the role of LLMs in CSS, particularly exploring their potential to revolutionize data analysis and content generation and contribute to a broader understanding of social phenomena. We begin by discussing the applications of LLMs in various computational problems in social science including sentiment analysis, hate speech detection, stance and humor detection, misinformation detection, event understanding, and social network analysis, illustrating their capacity to generate nuanced insights into human behavior and societal trends. Furthermore, we explore the innovative use of LLMs in generating social media content. We also discuss the various ethical, technical, and legal issues these applications pose, and considerations required for responsible LLM usage. We further present the challenges associated with data bias, privacy, and the integration of these models into existing research frameworks. This paper aims to provide a solid background on the potential of LLMs in CSS, their past applications, current problems, and how they can pave the way for revolutionizing CSS.</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>2025-12-12 22:45:18</t>
-        </is>
-      </c>
-      <c r="W3" t="b">
-        <v>0</v>
+      <c r="S3" s="2" t="inlineStr"/>
+      <c r="T3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2" t="inlineStr"/>
+      <c r="V3" s="2" t="inlineStr">
+        <is>
+          <t>2025-12-12 22:58:43</t>
+        </is>
+      </c>
+      <c r="W3" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>10.1009/s13278-075-01428-9</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>123222</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>123123333</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[AI generated] This paper aims to explore the potential of LLMs to revolutionize data analysis and content generation in computational social science.
+[翻译]
+本文旨在探索大语言模型在计算社会科学中革新数据分析和内容生成的潜力。</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[AI generated] The paper innovatively explores the potential of LLMs to revolutionize data analysis and content generation within computational social science.
+[翻译]
+该论文创新性地探索了大语言模型在计算社会科学领域革新数据分析和内容生成的潜力。</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[AI generated] The paper reviews and synthesizes existing applications of LLMs across various CSS tasks, analyzing their capabilities and limitations.
+[翻译]
+本文回顾并综合了LLM在各类CSS任务中的现有应用，分析了其能力与局限。</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://www.nature.com/articles/s41599-024-03611-3rteenth International Conference on Learning Representations</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>The Fourteenth International Conference on Learning Representations</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[AI generated] **中文标题：** 大语言模型在计算社会科学中的应用：前景、现状与挑战
+**说明：** 此翻译准确传达了原标题的核心信息，符合中文论文标题的学术规范，结构清晰、专业。其中：
+*   "Large language models (LLM)" 译为"大语言模型"，是领域内通用译法。
+*   "computational social science" 译为"计算社会科学"，是标准学科名称。
+*   "prospects, current state,</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>[AI generated] Large language models act as a powerful computational telescope, magnifying social patterns from vast text data. [翻译]大语言模型如同一台强大的计算望远镜，从海量文本数据中放大社会模式。</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Abstract
+            The advent of large language models (LLMs) has marked a new era in the transformation of computational social science (CSS). This paper dives into the role of LLMs in CSS, particularly exploring their potential to revolutionize data analysis and content generation and contribute to a broader understanding of social phenomena. We begin by discussing the applications of LLMs in various computational problems in social science including sentiment analysis, hate speech detection, stance and humor detection, misinformation detection, event understanding, and social network analysis, illustrating their capacity to generate nuanced insights into human behavior and societal trends. Furthermore, we explore the innovative use of LLMs in generating social media content. We also discuss the various ethical, technical, and legal issues these applications pose, and considerations required for responsible LLM usage. We further present the challenges associated with data bias, privacy, and the integration of these models into existing research frameworks. This paper aims to provide a solid background on the potential of LLMs in CSS, their past applications, current problems, and how they can pave the way for revolutionizing CSS.</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>2025-12-12 22:45:18</t>
+        </is>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>[💥冲突] 10.1109/TPDS.2023.3313779</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>123457</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>[AI generated] This paper aims to explore the potential of LLMs to revolutionize data analysis and content generation in computational social science. [翻译] 本文旨在探索大语言模型在计算社会科学中革新数据分析和内容生成的潜力。</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>[AI generated] Proposes a comprehensive framework for applying LLMs to computational social science, highlighting their transformative potential across multiple tasks and addressing associated challenges.
+[翻译]
+提出了一个将大语言模型应用于计算社会科学的综合框架，强调其在多项任务中的变革潜力，并探讨了相关挑战。</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>[AI generated] The paper reviews the application of LLMs across various computational social science tasks, including sentiment analysis and misinformation detection.
+[翻译]
+本文综述了大型语言模型在情感分析、虚假信息检测等多种计算社会科学任务中的应用。</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>[AI generated] LLMs demonstrate significant potential in transforming computational social science through enhanced data analysis and content generation, while also presenting ethical and technical challenges.
+[翻译]
+大语言模型通过增强数据分析和内容生成，展现了变革计算社会科学的巨大潜力，同时也带来了伦理与技术挑战。</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>[AI generated] The paper highlights challenges regarding data bias, privacy, and the integration of LLMs into existing research frameworks. [翻译] 该论文强调了数据偏见、隐私以及将大语言模型整合到现有研究框架中的挑战。</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>https://www.nate.com/articles/s41599-024-03611-3rteenth.html</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr"/>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>[AI generated] LLMs act as a versatile social science microscope, revealing intricate patterns in human behavior and societal dynamics. [翻译]大语言模型如同一台多功能社会科学显微镜，能揭示人类行为与社会动态的复杂图景。</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr"/>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>Abstract
+            The advent of large language models (LLMs) has marked a new era in the transformation of computational social science (CSS). This paper dives into the role of LLMs in CSS, particularly exploring their potential to revolutionize data analysis and content generation and contribute to a broader understanding of social phenomena. We begin by discussing the applications of LLMs in various computational problems in social science including sentiment analysis, hate speech detection, stance and humor detection, misinformation detection, event understanding, and social network analysis, illustrating their capacity to generate nuanced insights into human behavior and societal trends. Furthermore, we explore the innovative use of LLMs in generating social media content. We also discuss the various ethical, technical, and legal issues these applications pose, and considerations required for responsible LLM usage. We further present the challenges associated with data bias, privacy, and the integration of these models into existing research frameworks. This paper aims to provide a solid background on the potential of LLMs in CSS, their past applications, current problems, and how they can pave the way for revolutionizing CSS.</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr"/>
+      <c r="T5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2" t="inlineStr"/>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>2025-12-17 01:30:47</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>10.1109/TPDS.2023.3313779</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>123457</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>make_cot_strong</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>[AI generated] This paper aims to explore the potential of LLMs to revolutionize data analysis and content generation in computational social science. [翻译] 本文旨在探索大语言模型在计算社会科学中革新数据分析和内容生成的潜力。</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[AI generated] Proposes a comprehensive framework for applying LLMs to computational social science, highlighting their transformative potential across multiple tasks and addressing associated challenges.
 [翻译]
 提出了一个将大语言模型应用于计算社会科学的综合框架，强调其在多项任务中的变革潜力，并探讨了相关挑战。</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>[AI generated] The paper reviews the application of LLMs across various computational social science tasks, including sentiment analysis and misinformation detection.
 [翻译]
 本文综述了大型语言模型在情感分析、虚假信息检测等多种计算社会科学任务中的应用。</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>[AI generated] LLMs demonstrate significant potential in transforming computational social science through enhanced data analysis and content generation, while also presenting ethical and technical challenges.
 [翻译]
 大语言模型通过增强数据分析和内容生成，展现了变革计算社会科学的巨大潜力，同时也带来了伦理与技术挑战。</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[AI generated] The paper highlights challenges regarding data bias, privacy, and the integration of LLMs into existing research frameworks. [翻译] 该论文强调了数据偏见、隐私以及将大语言模型整合到现有研究框架中的挑战。</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>https://www.nate.com/articles/s41599-024-03611-3rteenth International Conference on Learning Representations</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
         <is>
           <t>[AI generated] **中文标题：** 构建具备强大推理能力的小型语言模型  
 **说明：**  
@@ -882,208 +1086,208 @@
 大型</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>[AI generated] LLMs act as a versatile social science microscope, revealing intricate patterns in human behavior and societal dynamics. [翻译]大语言模型如同一台多功能社会科学显微镜，能揭示人类行为与社会动态的复杂图景。</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Abstract
             The advent of large language models (LLMs) has marked a new era in the transformation of computational social science (CSS). This paper dives into the role of LLMs in CSS, particularly exploring their potential to revolutionize data analysis and content generation and contribute to a broader understanding of social phenomena. We begin by discussing the applications of LLMs in various computational problems in social science including sentiment analysis, hate speech detection, stance and humor detection, misinformation detection, event understanding, and social network analysis, illustrating their capacity to generate nuanced insights into human behavior and societal trends. Furthermore, we explore the innovative use of LLMs in generating social media content. We also discuss the various ethical, technical, and legal issues these applications pose, and considerations required for responsible LLM usage. We further present the challenges associated with data bias, privacy, and the integration of these models into existing research frameworks. This paper aims to provide a solid background on the potential of LLMs in CSS, their past applications, current problems, and how they can pave the way for revolutionizing CSS.</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
         <is>
           <t>2025-12-12 22:45:18</t>
         </is>
       </c>
-      <c r="W4" t="b">
+      <c r="W6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>10.1109/TPDS.2028.3313779</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>xsr</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>make_cot_strong</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>[AI generated] This paper aims to explore the potential of LLMs to revolutionize data analysis and content generation in computational social science.
 [翻译]
 本文旨在探索大语言模型在计算社会科学中革新数据分析和内容生成的潜力。</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[AI generated] Proposes a comprehensive framework for applying LLMs to computational social science, highlighting their dual role in data analysis and content generation.
 [翻译]
 提出了一个将大语言模型应用于计算社会科学的综合框架，强调了其在数据分析和内容生成方面的双重作用。</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>[AI generated] LLMs are applied to sentiment analysis, hate speech detection, and social network analysis, and used to generate social media content.
 [翻译]
 将大语言模型应用于情感分析、仇恨言论检测和社交网络分析，并用于生成社交媒体内容。</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>[AI generated] LLMs demonstrate significant potential in revolutionizing computational social science through enhanced data analysis and content generation, while also presenting ethical and technical challenges. [翻译] 大语言模型通过增强数据分析和内容生成，在革新计算社会科学方面展现出巨大潜力，同时也带来了伦理和技术挑战。</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[AI generated] The paper highlights challenges regarding data bias, privacy, and the integration of LLMs into existing research frameworks. [翻译] 该论文强调了数据偏见、隐私以及将大语言模型整合到现有研究框架中的挑战。</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>https://www.nate.com/articles/s41599-024-03611-3rteenth International Conference on Learning Representations</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
         <is>
           <t>[AI generated] **中文标题：构建具备强大推理能力的小型语言模型**  
 **论文摘要：**  
 大型语言模型（LLMs）的出现标志着计算社会科学（CSS）转型的新时代。本文深入探讨了LLMs在CSS中的作用，特别关注其在数据分析和内容生成方面的革命性潜力，以及其对更广泛理解社会现象的贡献。首先，我们讨论了LLMs在社会科学中的各类计算问题中的应用，包括情感分析、仇恨言论检测、立场与幽默识别、虚假信息检测</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>[AI generated] LLMs act as a versatile social science toolkit, unlocking nuanced insights into human behavior and societal trends. [翻译]大语言模型如同一个多功能的社科工具箱，能深入解析人类行为与社会趋势。</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Abstract
             The advent of large language models (LLMs) has marked a new era in the transformation of computational social science (CSS). This paper dives into the role of LLMs in CSS, particularly exploring their potential to revolutionize data analysis and content generation and contribute to a broader understanding of social phenomena. We begin by discussing the applications of LLMs in various computational problems in social science including sentiment analysis, hate speech detection, stance and humor detection, misinformation detection, event understanding, and social network analysis, illustrating their capacity to generate nuanced insights into human behavior and societal trends. Furthermore, we explore the innovative use of LLMs in generating social media content. We also discuss the various ethical, technical, and legal issues these applications pose, and considerations required for responsible LLM usage. We further present the challenges associated with data bias, privacy, and the integration of these models into existing research frameworks. This paper aims to provide a solid background on the potential of LLMs in CSS, their past applications, current problems, and how they can pave the way for revolutionizing CSS.</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="b">
-        <v>1</v>
-      </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
         <is>
           <t>2025-12-12 22:45:18</t>
         </is>
       </c>
-      <c r="W5" t="b">
+      <c r="W7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>[💥冲突] 10.1007/s13278-025-01428-9</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>Large language models (LLM) in computational social science: prospects, current state, and challenges</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>????????</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>2222333</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>make_cot_strong</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>[AI generated] This paper aims to explore the potential of LLMs to revolutionize data analysis and content generation in computational social science.
 [翻译]
 本文旨在探索大语言模型在计算社会科学中革新数据分析和内容生成的潜力。</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>[AI generated] The paper innovatively explores the potential of LLMs to revolutionize data analysis and content generation within computational social science.
 [翻译]
 该论文创新性地探索了大语言模型在计算社会科学领域革新数据分析和内容生成的潜力。</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>[AI generated] The paper reviews and synthesizes existing applications of LLMs across various CSS tasks, analyzing their capabilities and limitations.
 [翻译]
 本文回顾并综合了LLM在各类CSS任务中的现有应用，分析了其能力与局限。</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>52.0</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>12.0</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>https://www.nature.com/articles/s41599-024-03611-3rteenth International Conference on Learning Representations</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>The Fourteenth International Conference on Learning Representations</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>[AI generated] **中文标题：** 大语言模型在计算社会科学中的应用：前景、现状与挑战
 **说明：** 此翻译准确传达了原标题的核心信息，符合中文论文标题的学术规范，结构清晰、专业。其中：
@@ -1092,106 +1296,202 @@
 *   "prospects, current state,</t>
         </is>
       </c>
-      <c r="O6" s="2" t="inlineStr">
+      <c r="O8" s="2" t="inlineStr">
         <is>
           <t>[AI generated] Large language models act as a powerful computational telescope, magnifying social patterns from vast text data. [翻译]大语言模型如同一台强大的计算望远镜，从海量文本数据中放大社会模式。</t>
         </is>
       </c>
-      <c r="P6" s="2" t="inlineStr"/>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr"/>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>Abstract
             The advent of large language models (LLMs) has marked a new era in the transformation of computational social science (CSS). This paper dives into the role of LLMs in CSS, particularly exploring their potential to revolutionize data analysis and content generation and contribute to a broader understanding of social phenomena. We begin by discussing the applications of LLMs in various computational problems in social science including sentiment analysis, hate speech detection, stance and humor detection, misinformation detection, event understanding, and social network analysis, illustrating their capacity to generate nuanced insights into human behavior and societal trends. Furthermore, we explore the innovative use of LLMs in generating social media content. We also discuss the various ethical, technical, and legal issues these applications pose, and considerations required for responsible LLM usage. We further present the challenges associated with data bias, privacy, and the integration of these models into existing research frameworks. This paper aims to provide a solid background on the potential of LLMs in CSS, their past applications, current problems, and how they can pave the way for revolutionizing CSS.</t>
         </is>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S6" s="2" t="inlineStr"/>
-      <c r="T6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U6" s="2" t="inlineStr"/>
-      <c r="V6" s="2" t="inlineStr">
-        <is>
-          <t>2025-12-12 22:58:43</t>
-        </is>
-      </c>
-      <c r="W6" s="2" t="b">
+      <c r="S8" s="2" t="inlineStr"/>
+      <c r="T8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U8" s="2" t="inlineStr"/>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>2025-12-17 01:30:47</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>[💥冲突] 10.1007/s13278-025-01428-9</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>Large language models (LLM) in computational social science: prospects, current state, and challenges</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>123222</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>123123333</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>make_cot_strong</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>[AI generated] This paper aims to explore the potential of LLMs to revolutionize data analysis and content generation in computational social science.
 [翻译]
 本文旨在探索大语言模型在计算社会科学中革新数据分析和内容生成的潜力。</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>[AI generated] The paper innovatively explores the potential of LLMs to revolutionize data analysis and content generation within computational social science.
 [翻译]
 该论文创新性地探索了大语言模型在计算社会科学领域革新数据分析和内容生成的潜力。</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>[AI generated] The paper reviews and synthesizes existing applications of LLMs across various CSS tasks, analyzing their capabilities and limitations.
 [翻译]
 本文回顾并综合了LLM在各类CSS任务中的现有应用，分析了其能力与局限。</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>52.0</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>12.0</t>
         </is>
       </c>
-      <c r="K7" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>https://www.nature.com/articles/s.html</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>[AI generated] Large language models act as a powerful computational telescope, magnifying social patterns from vast text data. [翻译]大语言模型如同一台强大的计算望远镜，从海量文本数据中放大社会模式。</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr"/>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>Abstract
+            The advent of large language models (LLMs) has marked a new era in the transformation of computational social science (CSS). This paper dives into the role of LLMs in CSS, particularly exploring their potential to revolutionize data analysis and content generation and contribute to a broader understanding of social phenomena. We begin by discussing the applications of LLMs in various computational problems in social science including sentiment analysis, hate speech detection, stance and humor detection, misinformation detection, event understanding, and social network analysis, illustrating their capacity to generate nuanced insights into human behavior and societal trends. Furthermore, we explore the innovative use of LLMs in generating social media content. We also discuss the various ethical, technical, and legal issues these applications pose, and considerations required for responsible LLM usage. We further present the challenges associated with data bias, privacy, and the integration of these models into existing research frameworks. This paper aims to provide a solid background on the potential of LLMs in CSS, their past applications, current problems, and how they can pave the way for revolutionizing CSS.</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr"/>
+      <c r="T9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2" t="inlineStr"/>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>2025-12-17 01:30:47</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>[💥冲突] [💥冲突] 10.1007/s13278-025-01428-9</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Large language models (LLM) in computational social science: prospects, current state, and challenges</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>????????</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2222333</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>[AI generated] This paper aims to explore the potential of LLMs to revolutionize data analysis and content generation in computational social science.
+[翻译]
+本文旨在探索大语言模型在计算社会科学中革新数据分析和内容生成的潜力。</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>[AI generated] The paper innovatively explores the potential of LLMs to revolutionize data analysis and content generation within computational social science.
+[翻译]
+该论文创新性地探索了大语言模型在计算社会科学领域革新数据分析和内容生成的潜力。</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>[AI generated] The paper reviews and synthesizes existing applications of LLMs across various CSS tasks, analyzing their capabilities and limitations.
+[翻译]
+本文回顾并综合了LLM在各类CSS任务中的现有应用，分析了其能力与局限。</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>https://www.nature.com/articles/s41599-024-03611-3rteenth International Conference on Learning Representations</t>
         </is>
       </c>
-      <c r="L7" s="2" t="inlineStr"/>
-      <c r="M7" s="2" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr"/>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>The Fourteenth International Conference on Learning Representations</t>
         </is>
       </c>
-      <c r="N7" s="2" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>[AI generated] **中文标题：** 大语言模型在计算社会科学中的应用：前景、现状与挑战
 **说明：** 此翻译准确传达了原标题的核心信息，符合中文论文标题的学术规范，结构清晰、专业。其中：
@@ -1200,106 +1500,106 @@
 *   "prospects, current state,</t>
         </is>
       </c>
-      <c r="O7" s="2" t="inlineStr">
+      <c r="O10" s="2" t="inlineStr">
         <is>
           <t>[AI generated] Large language models act as a powerful computational telescope, magnifying social patterns from vast text data. [翻译]大语言模型如同一台强大的计算望远镜，从海量文本数据中放大社会模式。</t>
         </is>
       </c>
-      <c r="P7" s="2" t="inlineStr"/>
-      <c r="Q7" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr"/>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>Abstract
             The advent of large language models (LLMs) has marked a new era in the transformation of computational social science (CSS). This paper dives into the role of LLMs in CSS, particularly exploring their potential to revolutionize data analysis and content generation and contribute to a broader understanding of social phenomena. We begin by discussing the applications of LLMs in various computational problems in social science including sentiment analysis, hate speech detection, stance and humor detection, misinformation detection, event understanding, and social network analysis, illustrating their capacity to generate nuanced insights into human behavior and societal trends. Furthermore, we explore the innovative use of LLMs in generating social media content. We also discuss the various ethical, technical, and legal issues these applications pose, and considerations required for responsible LLM usage. We further present the challenges associated with data bias, privacy, and the integration of these models into existing research frameworks. This paper aims to provide a solid background on the potential of LLMs in CSS, their past applications, current problems, and how they can pave the way for revolutionizing CSS.</t>
         </is>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S7" s="2" t="inlineStr"/>
-      <c r="T7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U7" s="2" t="inlineStr"/>
-      <c r="V7" s="2" t="inlineStr">
+      <c r="S10" s="2" t="inlineStr"/>
+      <c r="T10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" s="2" t="inlineStr"/>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>2025-12-12 22:58:43</t>
         </is>
       </c>
-      <c r="W7" s="2" t="b">
+      <c r="W10" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>[💥冲突] [💥冲突] 10.1007/s13278-025-01428-9</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>Large language models (LLM) in computational social science: prospects, current state, and challenges</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>????????</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2222333</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>123222</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>123123333</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>make_cot_strong</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>[AI generated] This paper aims to explore the potential of LLMs to revolutionize data analysis and content generation in computational social science.
 [翻译]
 本文旨在探索大语言模型在计算社会科学中革新数据分析和内容生成的潜力。</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>[AI generated] The paper innovatively explores the potential of LLMs to revolutionize data analysis and content generation within computational social science.
 [翻译]
 该论文创新性地探索了大语言模型在计算社会科学领域革新数据分析和内容生成的潜力。</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>[AI generated] The paper reviews and synthesizes existing applications of LLMs across various CSS tasks, analyzing their capabilities and limitations.
 [翻译]
 本文回顾并综合了LLM在各类CSS任务中的现有应用，分析了其能力与局限。</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>https://www.nature.com/articles/s41599-024-03611-3rteenth International Conference on Learning Representations</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr">
         <is>
           <t>The Fourteenth International Conference on Learning Representations</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>[AI generated] **中文标题：** 大语言模型在计算社会科学中的应用：前景、现状与挑战
 **说明：** 此翻译准确传达了原标题的核心信息，符合中文论文标题的学术规范，结构清晰、专业。其中：
@@ -1308,106 +1608,106 @@
 *   "prospects, current state,</t>
         </is>
       </c>
-      <c r="O8" s="2" t="inlineStr">
+      <c r="O11" s="2" t="inlineStr">
         <is>
           <t>[AI generated] Large language models act as a powerful computational telescope, magnifying social patterns from vast text data. [翻译]大语言模型如同一台强大的计算望远镜，从海量文本数据中放大社会模式。</t>
         </is>
       </c>
-      <c r="P8" s="2" t="inlineStr"/>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="P11" s="2" t="inlineStr"/>
+      <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>Abstract
             The advent of large language models (LLMs) has marked a new era in the transformation of computational social science (CSS). This paper dives into the role of LLMs in CSS, particularly exploring their potential to revolutionize data analysis and content generation and contribute to a broader understanding of social phenomena. We begin by discussing the applications of LLMs in various computational problems in social science including sentiment analysis, hate speech detection, stance and humor detection, misinformation detection, event understanding, and social network analysis, illustrating their capacity to generate nuanced insights into human behavior and societal trends. Furthermore, we explore the innovative use of LLMs in generating social media content. We also discuss the various ethical, technical, and legal issues these applications pose, and considerations required for responsible LLM usage. We further present the challenges associated with data bias, privacy, and the integration of these models into existing research frameworks. This paper aims to provide a solid background on the potential of LLMs in CSS, their past applications, current problems, and how they can pave the way for revolutionizing CSS.</t>
         </is>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S8" s="2" t="inlineStr"/>
-      <c r="T8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U8" s="2" t="inlineStr"/>
-      <c r="V8" s="2" t="inlineStr">
-        <is>
-          <t>2025-12-12 22:53:54</t>
-        </is>
-      </c>
-      <c r="W8" s="2" t="b">
+      <c r="S11" s="2" t="inlineStr"/>
+      <c r="T11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2" t="inlineStr"/>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>2025-12-12 22:58:43</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>10.1007/s13278-025-01428-9</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>[💥冲突] [💥冲突] [💥冲突] 10.1007/s13278-025-01428-9</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>Large language models (LLM) in computational social science: prospects, current state, and challenges</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>123222</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>123123333</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>????????</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2222333</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>make_cot_strong</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>[AI generated] This paper aims to explore the potential of LLMs to revolutionize data analysis and content generation in computational social science.
 [翻译]
 本文旨在探索大语言模型在计算社会科学中革新数据分析和内容生成的潜力。</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>[AI generated] The paper innovatively explores the potential of LLMs to revolutionize data analysis and content generation within computational social science.
 [翻译]
 该论文创新性地探索了大语言模型在计算社会科学领域革新数据分析和内容生成的潜力。</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>[AI generated] The paper reviews and synthesizes existing applications of LLMs across various CSS tasks, analyzing their capabilities and limitations.
 [翻译]
 本文回顾并综合了LLM在各类CSS任务中的现有应用，分析了其能力与局限。</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>https://www.nature.com/articles/s41599-024-03611-3rteenth International Conference on Learning Representations</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr"/>
+      <c r="M12" s="2" t="inlineStr">
         <is>
           <t>The Fourteenth International Conference on Learning Representations</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>[AI generated] **中文标题：** 大语言模型在计算社会科学中的应用：前景、现状与挑战
 **说明：** 此翻译准确传达了原标题的核心信息，符合中文论文标题的学术规范，结构清晰、专业。其中：
@@ -1416,34 +1716,142 @@
 *   "prospects, current state,</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O12" s="2" t="inlineStr">
         <is>
           <t>[AI generated] Large language models act as a powerful computational telescope, magnifying social patterns from vast text data. [翻译]大语言模型如同一台强大的计算望远镜，从海量文本数据中放大社会模式。</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
+      <c r="P12" s="2" t="inlineStr"/>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>Abstract
             The advent of large language models (LLMs) has marked a new era in the transformation of computational social science (CSS). This paper dives into the role of LLMs in CSS, particularly exploring their potential to revolutionize data analysis and content generation and contribute to a broader understanding of social phenomena. We begin by discussing the applications of LLMs in various computational problems in social science including sentiment analysis, hate speech detection, stance and humor detection, misinformation detection, event understanding, and social network analysis, illustrating their capacity to generate nuanced insights into human behavior and societal trends. Furthermore, we explore the innovative use of LLMs in generating social media content. We also discuss the various ethical, technical, and legal issues these applications pose, and considerations required for responsible LLM usage. We further present the challenges associated with data bias, privacy, and the integration of these models into existing research frameworks. This paper aims to provide a solid background on the potential of LLMs in CSS, their past applications, current problems, and how they can pave the way for revolutionizing CSS.</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="b">
-        <v>1</v>
-      </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
+      <c r="S12" s="2" t="inlineStr"/>
+      <c r="T12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2" t="inlineStr"/>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>2025-12-12 22:53:54</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10.1007/s13278-025-01428-9</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Large language models (LLM) in computational social science: prospects, current state, and challenges</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>123222</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>123123333</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>make_cot_strong</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[AI generated] This paper aims to explore the potential of LLMs to revolutionize data analysis and content generation in computational social science.
+[翻译]
+本文旨在探索大语言模型在计算社会科学中革新数据分析和内容生成的潜力。</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[AI generated] The paper innovatively explores the potential of LLMs to revolutionize data analysis and content generation within computational social science.
+[翻译]
+该论文创新性地探索了大语言模型在计算社会科学领域革新数据分析和内容生成的潜力。</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[AI generated] The paper reviews and synthesizes existing applications of LLMs across various CSS tasks, analyzing their capabilities and limitations.
+[翻译]
+本文回顾并综合了LLM在各类CSS任务中的现有应用，分析了其能力与局限。</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://www.nature.com/articles/s41599-024-03611-3rteenth International Conference on Learning Representations</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>The Fourteenth International Conference on Learning Representations</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>[AI generated] **中文标题：** 大语言模型在计算社会科学中的应用：前景、现状与挑战
+**说明：** 此翻译准确传达了原标题的核心信息，符合中文论文标题的学术规范，结构清晰、专业。其中：
+*   "Large language models (LLM)" 译为"大语言模型"，是领域内通用译法。
+*   "computational social science" 译为"计算社会科学"，是标准学科名称。
+*   "prospects, current state,</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[AI generated] Large language models act as a powerful computational telescope, magnifying social patterns from vast text data. [翻译]大语言模型如同一台强大的计算望远镜，从海量文本数据中放大社会模式。</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Abstract
+            The advent of large language models (LLMs) has marked a new era in the transformation of computational social science (CSS). This paper dives into the role of LLMs in CSS, particularly exploring their potential to revolutionize data analysis and content generation and contribute to a broader understanding of social phenomena. We begin by discussing the applications of LLMs in various computational problems in social science including sentiment analysis, hate speech detection, stance and humor detection, misinformation detection, event understanding, and social network analysis, illustrating their capacity to generate nuanced insights into human behavior and societal trends. Furthermore, we explore the innovative use of LLMs in generating social media content. We also discuss the various ethical, technical, and legal issues these applications pose, and considerations required for responsible LLM usage. We further present the challenges associated with data bias, privacy, and the integration of these models into existing research frameworks. This paper aims to provide a solid background on the potential of LLMs in CSS, their past applications, current problems, and how they can pave the way for revolutionizing CSS.</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="b">
+        <v>1</v>
+      </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
         <is>
           <t>2025-12-11 18:17:50</t>
         </is>
       </c>
-      <c r="W9" t="b">
+      <c r="W13" t="b">
         <v>0</v>
       </c>
     </row>

--- a/paper_database.xlsx
+++ b/paper_database.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <col width="50" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="50" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
@@ -488,6 +488,7 @@
     <col width="22" customWidth="1" min="22" max="22"/>
     <col width="18" customWidth="1" min="23" max="23"/>
     <col width="17" customWidth="1" min="24" max="24"/>
+    <col width="17" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -501,7 +502,7 @@
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>authors</t>
         </is>
@@ -609,6 +610,11 @@
       <c r="X1" s="2" t="inlineStr">
         <is>
           <t>invalid fields</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>is placeholder</t>
         </is>
       </c>
     </row>
@@ -724,106 +730,109 @@
         <v>0</v>
       </c>
       <c r="X2" s="3" t="inlineStr"/>
+      <c r="Y2" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>[💥冲突] 10.1609/icwsm.v19i1.35800</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>10.1609/icwsm.v19i1.35800</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Conversation Kernels: A Flexible Mechanism to Learn Relevant Context for Online Conversation Understanding</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>to be filled in</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Vibhor Agarwal,Arjoo Gupta,Suparna De,Nishanth Sastry</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>2025-06-07</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>Base Techniques</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Base Techniques;Comment Generation</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>Addressing the sparsity and context-dependency of individual online utterances, where traditional models often fail to capture implicit dependencies within conversation trees or introduce noise through indiscriminate context inclusion.
 [翻译] 针对在线言论固有的稀疏性和语境依赖性问题，即传统模型往往难以捕捉对话树内的隐式依赖关系，或因无差别地引入上下文而产生噪声</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>The proposal of "Conversation Kernels," a general-purpose mechanism that employs flexible topological shapes to retrieve fine-grained, structured conversational context, distinguishing itself by identifying the "right" structural neighborhood rather than merely increasing context length.
 [翻译] 提出了“对话核”这一通用机制，利用灵活的拓扑形状来检索细粒度的结构化对话上下文；其独到之处在于通过识别“正确”的结构邻域而非单纯增加上下文长度来理解对话。</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>An end-to-end trained probabilistic framework that first retrieves relevant structural windows (e.g., ancestors, neighbors) via similarity scoring, and subsequently fuses these contexts through a weighted marginalization of the predictive distributions generated by a RoBERTa-based encoder.
 [翻译] 一个端到端训练的概率框架，首先通过相似度评分检索相关的结构化窗口（如祖先、邻居），随后通过对RoBERTa编码器生成的预测分布进行加权求和（边缘化），从而融合这些上下文信息。[通俗核心]针对目标评论构建回复树，取几个窗口（如父评论窗口、1跳窗口），每个窗口中所有评论与原评论拼接，并进行预测，最后不同窗口与原评论的相关性经过softmax作为权重，对所有预测置信度加权和，得到最终结果</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="I3" s="3" t="inlineStr">
         <is>
           <t>Extensive experiments on Slashdot data demonstrate that context-augmented kernels outperform baseline transformers by up to 20% in accuracy and surpass general-purpose LLMs (GPT-3.5/4) in specific categorization tasks, revealing that different tasks require distinct structural context patterns.
 [翻译] 在Slashdot数据上的广泛实验表明，上下文增强的核机制在准确率上比基线Transformer模型高出20%，并在特定分类任务中超越了通用大语言模型（GPT-3.5/4），揭示了不同任务需要截然不同的结构化上下文模式。</t>
         </is>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>The approach relies heavily on explicit tree-structured reply threads, limiting applicability in flat discussion formats, and may face cold-start challenges in early-stage conversations with sparse context.
 [翻译] 该方法严重依赖显式的树状回复线索，限制了其在扁平化讨论形式中的适用性，并且在上下文稀疏的对话早期阶段可能面临冷启动挑战。</t>
         </is>
       </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="K3" s="3" t="inlineStr">
         <is>
           <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35800</t>
         </is>
       </c>
-      <c r="L3" s="4" t="inlineStr">
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>https://netsys.surrey.ac.uk/datasets/slashdot/</t>
         </is>
       </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="M3" s="3" t="inlineStr">
         <is>
           <t>ICWSM</t>
         </is>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="N3" s="3" t="inlineStr">
         <is>
           <t>[AI generated] **中文标题：对话核：一种学习在线对话理解相关上下文的灵活机制**</t>
         </is>
       </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="O3" s="3" t="inlineStr">
         <is>
           <t>A flexible, structural context discovery framework that enhances conversation understanding by learning to attend to relevant topological neighborhoods within conversation trees.[翻译] 一个灵活的结构化上下文发现框架，通过学习关注对话树内相关的拓扑邻域来增强对话理解能力。</t>
         </is>
       </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="P3" s="3" t="inlineStr">
         <is>
           <t>figures/Conversation Kernels.png;figures/Conversation Kernels2.png</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="Q3" s="3" t="inlineStr">
         <is>
           <t>Understanding online conversations has attracted research attention with the growth of social networks and online discussion forums. Content analysis of posts and replies in online conversations is difficult because each individual utterance is usually short and may implicitly refer to other posts within the same conversation. Thus, understanding individual posts requires capturing the conversational context and dependencies between different parts of a conversation tree and then encoding the context dependencies between posts and comments/replies into the language model.
 To this end, we propose a general-purpose mechanism to discover appropriate conversational context for various aspects about an online post in a conversation, such as whether it is informative, insightful, interesting or funny. Specifically, we design two families of Conversation Kernels, which explore different parts of the neighborhood of a post in the tree representing the conversation and through this, build relevant conversational context that is appropriate for each task being considered. We apply our developed method to conversations crawled from slashdot.org, which allows users to apply highly different labels to posts, such as `insightful', `funny', etc., and therefore provides an ideal experimental platform to study whether a framework such as Conversation Kernels is general-purpose and flexible enough to be adapted to disparately different conversation understanding tasks.
 We perform extensive experiments and find that context-augmented conversation kernels can significantly outperform transformer-based baselines, with absolute improvements in accuracy up to 20% and up to 19% for macro-F1 score. Our evaluations also show that conversation kernels outperform state-of-the-art large language models including GPT-4. We also showcase the generalizability and demonstrate that conversation kernels can be a general-purpose approach that flexibly handles distinctly different conversation understanding tasks in a unified manner.</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="R3" s="3" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="S3" s="3" t="inlineStr">
         <is>
           <t>【基础技术—上下文感知方法】可用于所有内容理解任务，论文中的实验用的是是否受欢迎二分类
 [引用文]To better bridge pattern recognition with social interaction structures, Agarwal et al. (2025) proposed Conversation Kernels, an end-to-end framework designed to extract fine-grained context from conversation trees. By dynamically retrieving and weighting specific topological neighborhoods (e.g., ancestors or siblings) rather than ingesting linear history, their method effectively filters noise inherent in social discussions. This structural selectivity demonstrates that incorporating explicit interaction topologies is crucial for accurately decoding the nature of online conversations, yielding performance that surpasses even general-purpose Large Language Models like GPT-4.
@@ -831,111 +840,112 @@
 为了更好地将模式识别与社会互动结构联系起来，Agarwal等人 (2025) 提出了“对话核（Conversation Kernels）”，这是一种旨在从对话树中提取细粒度上下文的端到端框架。通过动态检索并加权特定的拓扑邻域（如祖先或兄弟节点）而非摄入线性历史，该方法有效地过滤了社会讨论中固有的噪声。这种结构选择性证明，结合显式的互动拓扑对于准确解读在线对话的性质至关重要，其表现甚至超越了像 GPT-4 这样的通用大语言模型。</t>
         </is>
       </c>
-      <c r="T3" s="4" t="b">
+      <c r="T3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U3" s="4" t="inlineStr"/>
-      <c r="V3" s="4" t="inlineStr">
-        <is>
-          <t>2026-01-21 13:32:00</t>
-        </is>
-      </c>
-      <c r="W3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X3" s="4" t="inlineStr"/>
+      <c r="U3" s="3" t="inlineStr"/>
+      <c r="V3" s="3" t="inlineStr">
+        <is>
+          <t>2026-01-23 19:15:29</t>
+        </is>
+      </c>
+      <c r="W3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3" t="inlineStr"/>
+      <c r="Y3" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>10.1609/icwsm.v19i1.35800</t>
+          <t>10.48550/arXiv.2402.18950</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Conversation Kernels: A Flexible Mechanism to Learn Relevant Context for Online Conversation Understanding</t>
+          <t>PopALM: Popularity-aligned language models for social media trendy response prediction</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>to be filled in</t>
+          <t>Erxin Yu1,Jing Li1∗,Chunpu Xu</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Base Techniques;Comment Generation</t>
+          <t>Comment Generation</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>Addressing the sparsity and context-dependency of individual online utterances, where traditional models often fail to capture implicit dependencies within conversation trees or introduce noise through indiscriminate context inclusion.
-[翻译] 针对在线言论固有的稀疏性和语境依赖性问题，即传统模型往往难以捕捉对话树内的隐式依赖关系，或因无差别地引入上下文而产生噪声</t>
+          <t>Motivated by the need to simulate mainstream public reactions on social media, this study identifies response popularity—quantified by "like" counts—as a crucial yet noisy signal for aligning language models with collective preferences.
+[翻译] 出于模拟社交媒体上主流公众反应的需求，本研究将通过“点赞数”量化的回复流行度视为一种关键信号，旨在将语言模型与群体偏好对齐，尽管该指标本身存在噪声。</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>The proposal of "Conversation Kernels," a general-purpose mechanism that employs flexible topological shapes to retrieve fine-grained, structured conversational context, distinguishing itself by identifying the "right" structural neighborhood rather than merely increasing context length.
-[翻译] 提出了“对话核”这一通用机制，利用灵活的拓扑形状来检索细粒度的结构化对话上下文；其独到之处在于通过识别“正确”的结构邻域而非单纯增加上下文长度来理解对话。</t>
+          <t>The authors propose PopALM, which introduces a curriculum learning-enhanced Proximal Policy Optimization (CL-PPO) strategy to robustly align generation with popularity by mitigating the significant noise inherent in
+[翻译] 作者提出了 PopALM，该模型引入了一种增强了课程学习的近端策略优化（CL-PPO）策略，通过缓解原始互动指标中存在的显著噪声，稳健地将生成内容与流行度对齐。</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>An end-to-end trained probabilistic framework that first retrieves relevant structural windows (e.g., ancestors, neighbors) via similarity scoring, and subsequently fuses these contexts through a weighted marginalization of the predictive distributions generated by a RoBERTa-based encoder.
-[翻译] 一个端到端训练的概率框架，首先通过相似度评分检索相关的结构化窗口（如祖先、邻居），随后通过对RoBERTa编码器生成的预测分布进行加权求和（边缘化），从而融合这些上下文信息。[通俗核心]针对目标评论构建回复树，取几个窗口（如父评论窗口、1跳窗口），每个窗口中所有评论与原评论拼接，并进行预测，最后不同窗口与原评论的相关性经过softmax作为权重，对所有预测置信度加权和，得到最终结果</t>
+          <t>The framework follows a sequential "SFT-RM-RL" pipeline, where the CL-PPO algorithm specifically incorporates reward enhancement, ranking, and self-paced sampling to transition training from high-confidence samples to complex scenarios, thereby filtering environmental noise.
+[翻译] 该框架遵循顺序的“有监督微调-奖励建模-强化学习”流程，其中CL-PPO算法特别结合了奖励增强、排序和自步采样机制，以实现从高置信度样本到复杂场景的过渡训练，从而过滤环境噪声。</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>Extensive experiments on Slashdot data demonstrate that context-augmented kernels outperform baseline transformers by up to 20% in accuracy and surpass general-purpose LLMs (GPT-3.5/4) in specific categorization tasks, revealing that different tasks require distinct structural context patterns.
-[翻译] 在Slashdot数据上的广泛实验表明，上下文增强的核机制在准确率上比基线Transformer模型高出20%，并在特定分类任务中超越了通用大语言模型（GPT-3.5/4），揭示了不同任务需要截然不同的结构化上下文模式。</t>
+          <t>Experiments on a large-scale Weibo benchmark demonstrate that PopALM outperforms state-of-the-art baselines in both automatic metrics and human evaluation, generating responses that are more specific and aligned with public sentiment.
+[翻译] 在大规模微博基准上的实验表明，PopALM 在自动指标和人工评估方面均优于最先进的基线模型，生成的回复更加具体且符合公众情绪。</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>The approach relies heavily on explicit tree-structured reply threads, limiting applicability in flat discussion formats, and may face cold-start challenges in early-stage conversations with sparse context.
-[翻译] 该方法严重依赖显式的树状回复线索，限制了其在扁平化讨论形式中的适用性，并且在上下文稀疏的对话早期阶段可能面临冷启动挑战。</t>
+          <t>A primary limitation lies in the reliance on "like" counts as the sole proxy for popularity, which may not fully capture multi-dimensional user engagement or generalize across different platform algorithms.
+[翻译] 一个主要的局限性在于依赖“点赞数”作为衡量流行度的单一代理指标，这可能无法完全捕捉多维度的用户参与度，也难以在不同平台的算法间泛化。</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35800</t>
+          <t>https://aclanthology.org/2024.lrec-main.1127/</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>https://netsys.surrey.ac.uk/datasets/slashdot/</t>
+          <t>https://github.com/ErxinYu/PopALM</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t>ICWSM</t>
+          <t>LREC-COLING 2024</t>
         </is>
       </c>
       <c r="N4" s="3" t="inlineStr">
         <is>
-          <t>[AI generated] **中文标题：对话核：一种学习在线对话理解相关上下文的灵活机制**</t>
+          <t>[AI generated] **中文标题：** PopALM：面向社交媒体热门回复预测的流行度对齐语言模型</t>
         </is>
       </c>
       <c r="O4" s="3" t="inlineStr">
         <is>
-          <t>A flexible, structural context discovery framework that enhances conversation understanding by learning to attend to relevant topological neighborhoods within conversation trees.[翻译] 一个灵活的结构化上下文发现框架，通过学习关注对话树内相关的拓扑邻域来增强对话理解能力。</t>
+          <t>先练“选手”（SFT），再练“裁判”（RM），最后让“裁判”指导“选手”训练（RL）</t>
         </is>
       </c>
       <c r="P4" s="3" t="inlineStr">
         <is>
-          <t>figures/Conversation Kernels.png;figures/Conversation Kernels2.png</t>
+          <t>figures/PopALM.png</t>
         </is>
       </c>
       <c r="Q4" s="3" t="inlineStr">
         <is>
-          <t>Understanding online conversations has attracted research attention with the growth of social networks and online discussion forums. Content analysis of posts and replies in online conversations is difficult because each individual utterance is usually short and may implicitly refer to other posts within the same conversation. Thus, understanding individual posts requires capturing the conversational context and dependencies between different parts of a conversation tree and then encoding the context dependencies between posts and comments/replies into the language model.
-To this end, we propose a general-purpose mechanism to discover appropriate conversational context for various aspects about an online post in a conversation, such as whether it is informative, insightful, interesting or funny. Specifically, we design two families of Conversation Kernels, which explore different parts of the neighborhood of a post in the tree representing the conversation and through this, build relevant conversational context that is appropriate for each task being considered. We apply our developed method to conversations crawled from slashdot.org, which allows users to apply highly different labels to posts, such as `insightful', `funny', etc., and therefore provides an ideal experimental platform to study whether a framework such as Conversation Kernels is general-purpose and flexible enough to be adapted to disparately different conversation understanding tasks.
-We perform extensive experiments and find that context-augmented conversation kernels can significantly outperform transformer-based baselines, with absolute improvements in accuracy up to 20% and up to 19% for macro-F1 score. Our evaluations also show that conversation kernels outperform state-of-the-art large language models including GPT-4. We also showcase the generalizability and demonstrate that conversation kernels can be a general-purpose approach that flexibly handles distinctly different conversation understanding tasks in a unified manner.</t>
+          <t>Social media platforms are daily exhibiting millions of events. To preliminarily predict the mainstream public reaction to these events, we study trendy response prediction to automatically generate top-liked user replies to social media events. While previous works focus on generating responses without factoring in popularity, we propose Popularity-Aligned Language Models (PopALM) to distinguish responses liked by a larger audience through reinforcement learning. Recognizing the noisy labels from user “likes”, we tailor-make curriculum learning in proximal policy optimization (PPO) to help models capture the essential samples for easy-to-hard training. In experiments, we build a large-scale Weibo dataset for trendy response prediction, and its results show that PopALM can help boost the performance of advanced language models.</t>
         </is>
       </c>
       <c r="R4" s="3" t="inlineStr">
@@ -945,10 +955,10 @@
       </c>
       <c r="S4" s="3" t="inlineStr">
         <is>
-          <t>【基础技术—上下文感知方法】可用于所有内容理解任务，论文中的实验用的是是否受欢迎二分类
-[引用文]To better bridge pattern recognition with social interaction structures, Agarwal et al. (2025) proposed Conversation Kernels, an end-to-end framework designed to extract fine-grained context from conversation trees. By dynamically retrieving and weighting specific topological neighborhoods (e.g., ancestors or siblings) rather than ingesting linear history, their method effectively filters noise inherent in social discussions. This structural selectivity demonstrates that incorporating explicit interaction topologies is crucial for accurately decoding the nature of online conversations, yielding performance that surpasses even general-purpose Large Language Models like GPT-4.
-[翻译]
-为了更好地将模式识别与社会互动结构联系起来，Agarwal等人 (2025) 提出了“对话核（Conversation Kernels）”，这是一种旨在从对话树中提取细粒度上下文的端到端框架。通过动态检索并加权特定的拓扑邻域（如祖先或兄弟节点）而非摄入线性历史，该方法有效地过滤了社会讨论中固有的噪声。这种结构选择性证明，结合显式的互动拓扑对于准确解读在线对话的性质至关重要，其表现甚至超越了像 GPT-4 这样的通用大语言模型。</t>
+          <t>[备注]该论文在会议上没有doi，使用的是arxiv版的doi【经典微调+RL范式】噪声指的是受各种因素影响，点赞数的具体值难以公平对比&lt;br&gt;[引用文]
+In the pursuit of simulating collective social behaviors rather than merely generating coherent text, aligning models with mainstream public sentiment becomes critical. However, social feedback signals, such as "like" counts, are often fraught with noise stemming from non-content factors like posting time or author influence. To address this, PopALM (Yu et al., 2024) proposes a PPO algorithm enhanced by curriculum learning. This approach operates on the premise that models should prioritize high-confidence samples—where popularity strongly correlates with content quality—to establish a robust foundation. By adopting a self-paced sampling strategy that transitions from easy-to-learn instances to noisier ones, PopALM effectively mitigates the significant noise inherent in using "like" counts as popularity indicators.
+[翻译]
+在追求模拟群体社会行为而非仅仅生成连贯文本的过程中，将模型与主流公众情绪对齐变得至关重要。然而，诸如“点赞数”之类的社会反馈信号往往充满了源自非内容因素（如发布时间或作者影响力）的噪声。针对这一问题，PopALM (Yu et al., 2024) 提出了一种增强了课程学习的PPO算法。该方法基于这样一个前提：模型应优先学习那些置信度高（即流行度与内容质量强相关）的样本，从而打下坚实的基础。通过采用一种从易学样本到噪声样本过渡的自步采样策略，PopALM 有效缓解了点赞数作为热度指标存在大量噪声的问题。</t>
         </is>
       </c>
       <c r="T4" s="3" t="b">
@@ -957,221 +967,106 @@
       <c r="U4" s="3" t="inlineStr"/>
       <c r="V4" s="3" t="inlineStr">
         <is>
-          <t>2026-01-15 20:03:24</t>
+          <t>2026-01-21 13:27:05</t>
         </is>
       </c>
       <c r="W4" s="3" t="b">
         <v>0</v>
       </c>
       <c r="X4" s="3" t="inlineStr"/>
+      <c r="Y4" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>10.48550/arXiv.2402.18950</t>
+          <t>10.18653/v1/2023.emnlp-main.420</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>PopALM: Popularity-aligned language models for social media trendy response prediction</t>
+          <t>Event causality extraction via implicit cause-effect interactions</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Erxin Yu1,Jing Li1∗,Chunpu Xu</t>
+          <t>Jintao Liu,Zequn Zhang,Kaiwen Wei,Zhi Guo,Xian Sun,Li Jin,Xiaoyu Li</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>Comment Generation</t>
+          <t>Event Extraction</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>Motivated by the need to simulate mainstream public reactions on social media, this study identifies response popularity—quantified by "like" counts—as a crucial yet noisy signal for aligning language models with collective preferences.
-[翻译] 出于模拟社交媒体上主流公众反应的需求，本研究将通过“点赞数”量化的回复流行度视为一种关键信号，旨在将语言模型与群体偏好对齐，尽管该指标本身存在噪声。</t>
+          <t>现有ECE（事件因果关系抽取）方式没有充分利用原因事件和结果事件之间的相互作用。这本可以为因果关系推理提供关键线索</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>The authors propose PopALM, which introduces a curriculum learning-enhanced Proximal Policy Optimization (CL-PPO) strategy to robustly align generation with popularity by mitigating the significant noise inherent in
-[翻译] 作者提出了 PopALM，该模型引入了一种增强了课程学习的近端策略优化（CL-PPO）策略，通过缓解原始互动指标中存在的显著噪声，稳健地将生成内容与流行度对齐。</t>
+          <t>论文解耦ECE的两个任务（论元抽取、结果事件预测），并使用OT进行教师模型和学生模型的细粒度对齐，增强了因果事件之间的隐式联系</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>The framework follows a sequential "SFT-RM-RL" pipeline, where the CL-PPO algorithm specifically incorporates reward enhancement, ranking, and self-paced sampling to transition training from high-confidence samples to complex scenarios, thereby filtering environmental noise.
-[翻译] 该框架遵循顺序的“有监督微调-奖励建模-强化学习”流程，其中CL-PPO算法特别结合了奖励增强、排序和自步采样机制，以实现从高置信度样本到复杂场景的过渡训练，从而过滤环境噪声。</t>
+          <t>基于模板的条件生成（输入基于模板附有特定特权信息的prompt，使预训练模型BART（基于transformer）输出基于模板的结构化的文本，用于后续微调）-&gt;教师-学生知识蒸馏（微调了两个教师模型负责不同任务：事件论元抽取、结果事件预测）-&gt;因果最优传输CEOT（相关损失并入蒸馏损失，参与蒸馏训练，学生模型与教师模型细粒度对齐）</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>Experiments on a large-scale Weibo benchmark demonstrate that PopALM outperforms state-of-the-art baselines in both automatic metrics and human evaluation, generating responses that are more specific and aligned with public sentiment.
-[翻译] 在大规模微博基准上的实验表明，PopALM 在自动指标和人工评估方面均优于最先进的基线模型，生成的回复更加具体且符合公众情绪。</t>
+          <t>ECE任务中显著提升了性能，ECE-CCKS数据集上比此前最优方法F1值提高了8.39%</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>A primary limitation lies in the reliance on "like" counts as the sole proxy for popularity, which may not fully capture multi-dimensional user engagement or generalize across different platform algorithms.
-[翻译] 一个主要的局限性在于依赖“点赞数”作为衡量流行度的单一代理指标，这可能无法完全捕捉多维度的用户参与度，也难以在不同平台的算法间泛化。</t>
+          <t>多教师蒸馏机制和复杂的OT计算显著增加了模型训练阶段的成本</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>https://aclanthology.org/2024.lrec-main.1127/</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>https://github.com/ErxinYu/PopALM</t>
-        </is>
-      </c>
+          <t>https://aclanthology.org/2023.emnlp-main.420</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr"/>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>LREC-COLING 2024</t>
+          <t>Proceedings of the 2023 Conference on Empirical Methods in Natural Language Processing</t>
         </is>
       </c>
       <c r="N5" s="3" t="inlineStr">
-        <is>
-          <t>[AI generated] **中文标题：** PopALM：面向社交媒体热门回复预测的流行度对齐语言模型</t>
-        </is>
-      </c>
-      <c r="O5" s="3" t="inlineStr">
-        <is>
-          <t>先练“选手”（SFT），再练“裁判”（RM），最后让“裁判”指导“选手”训练（RL）</t>
-        </is>
-      </c>
-      <c r="P5" s="3" t="inlineStr">
-        <is>
-          <t>figures/PopALM.png</t>
-        </is>
-      </c>
-      <c r="Q5" s="3" t="inlineStr">
-        <is>
-          <t>Social media platforms are daily exhibiting millions of events. To preliminarily predict the mainstream public reaction to these events, we study trendy response prediction to automatically generate top-liked user replies to social media events. While previous works focus on generating responses without factoring in popularity, we propose Popularity-Aligned Language Models (PopALM) to distinguish responses liked by a larger audience through reinforcement learning. Recognizing the noisy labels from user “likes”, we tailor-make curriculum learning in proximal policy optimization (PPO) to help models capture the essential samples for easy-to-hard training. In experiments, we build a large-scale Weibo dataset for trendy response prediction, and its results show that PopALM can help boost the performance of advanced language models.</t>
-        </is>
-      </c>
-      <c r="R5" s="3" t="inlineStr">
-        <is>
-          <t>anonymous</t>
-        </is>
-      </c>
-      <c r="S5" s="3" t="inlineStr">
-        <is>
-          <t>[备注]该论文在会议上没有doi，使用的是arxiv版的doi【经典微调+RL范式】噪声指的是受各种因素影响，点赞数的具体值难以公平对比&lt;br&gt;[引用文]
-In the pursuit of simulating collective social behaviors rather than merely generating coherent text, aligning models with mainstream public sentiment becomes critical. However, social feedback signals, such as "like" counts, are often fraught with noise stemming from non-content factors like posting time or author influence. To address this, PopALM (Yu et al., 2024) proposes a PPO algorithm enhanced by curriculum learning. This approach operates on the premise that models should prioritize high-confidence samples—where popularity strongly correlates with content quality—to establish a robust foundation. By adopting a self-paced sampling strategy that transitions from easy-to-learn instances to noisier ones, PopALM effectively mitigates the significant noise inherent in using "like" counts as popularity indicators.
-[翻译]
-在追求模拟群体社会行为而非仅仅生成连贯文本的过程中，将模型与主流公众情绪对齐变得至关重要。然而，诸如“点赞数”之类的社会反馈信号往往充满了源自非内容因素（如发布时间或作者影响力）的噪声。针对这一问题，PopALM (Yu et al., 2024) 提出了一种增强了课程学习的PPO算法。该方法基于这样一个前提：模型应优先学习那些置信度高（即流行度与内容质量强相关）的样本，从而打下坚实的基础。通过采用一种从易学样本到噪声样本过渡的自步采样策略，PopALM 有效缓解了点赞数作为热度指标存在大量噪声的问题。</t>
-        </is>
-      </c>
-      <c r="T5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U5" s="3" t="inlineStr"/>
-      <c r="V5" s="3" t="inlineStr">
-        <is>
-          <t>2026-01-21 13:27:05</t>
-        </is>
-      </c>
-      <c r="W5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>10.18653/v1/2023.emnlp-main.420</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Event causality extraction via implicit cause-effect interactions</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Jintao Liu,Zequn Zhang,Kaiwen Wei,Zhi Guo,Xian Sun,Li Jin,Xiaoyu Li</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>Event Extraction</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>现有ECE（事件因果关系抽取）方式没有充分利用原因事件和结果事件之间的相互作用。这本可以为因果关系推理提供关键线索</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>论文解耦ECE的两个任务（论元抽取、结果事件预测），并使用OT进行教师模型和学生模型的细粒度对齐，增强了因果事件之间的隐式联系</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>基于模板的条件生成（输入基于模板附有特定特权信息的prompt，使预训练模型BART（基于transformer）输出基于模板的结构化的文本，用于后续微调）-&gt;教师-学生知识蒸馏（微调了两个教师模型负责不同任务：事件论元抽取、结果事件预测）-&gt;因果最优传输CEOT（相关损失并入蒸馏损失，参与蒸馏训练，学生模型与教师模型细粒度对齐）</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>ECE任务中显著提升了性能，ECE-CCKS数据集上比此前最优方法F1值提高了8.39%</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>多教师蒸馏机制和复杂的OT计算显著增加了模型训练阶段的成本</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>https://aclanthology.org/2023.emnlp-main.420</t>
-        </is>
-      </c>
-      <c r="L6" s="3" t="inlineStr"/>
-      <c r="M6" s="3" t="inlineStr">
-        <is>
-          <t>Proceedings of the 2023 Conference on Empirical Methods in Natural Language Processing</t>
-        </is>
-      </c>
-      <c r="N6" s="3" t="inlineStr">
         <is>
           <t>[AI generated] 中文标题：基于隐式因果交互的事件因果关系抽取
 （该翻译准确传达了原标题“Event causality extraction via implicit cause-effect interactions”的核心含义，即通过捕捉原因与结果事件之间隐性的相互作用来实现因果关系抽取。“隐式因果交互”的表述符合计算机科学与自然语言处理领域的学术用语习惯，且与摘要中“Implicit Cause-Effect interaction (ICE) framework”的命名直接对应，保持了术语一致性。）</t>
         </is>
       </c>
-      <c r="O6" s="3" t="inlineStr">
+      <c r="O5" s="3" t="inlineStr">
         <is>
           <t>通过OT强制学生模型与教师模型对齐</t>
         </is>
       </c>
-      <c r="P6" s="3" t="inlineStr">
+      <c r="P5" s="3" t="inlineStr">
         <is>
           <t>figures/ICE.png</t>
         </is>
       </c>
-      <c r="Q6" s="3" t="inlineStr">
+      <c r="Q5" s="3" t="inlineStr">
         <is>
           <t>Event Causality Extraction (ECE) aims to extract the cause-effect event pairs from the given  text, which requires the model to possess a  strong reasoning ability to capture event causalities. However, existing works have not adequately exploited the interactions between the  cause and effect event that could provide crucial clues for causality reasoning. To this end,  we propose an Implicit Cause-Effect interaction  (ICE) framework, which formulates ECE as  a template-based conditional generation problem. The proposed method captures the implicit intra- and inter-event interactions by incorporating the privileged information (ground  truth event types and arguments) for reasoning, and a knowledge distillation mechanism  is introduced to alleviate the unavailability of  privileged information in the test stage. Furthermore, to facilitate knowledge transfer from  teacher to student, we design an event-level  alignment strategy named Cause-Effect Optimal Transport (CEOT) to strengthen the semantic interactions of cause-effect event types and  arguments. Experimental results indicate that  ICE achieves state-of-the-art performance on  the ECE-CCKS dataset.</t>
         </is>
       </c>
-      <c r="R6" s="3" t="inlineStr">
+      <c r="R5" s="3" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S6" s="3" t="inlineStr">
+      <c r="S5" s="3" t="inlineStr">
         <is>
           <t>❔这个方法为什么可以解决问题？
     核心方法是使用优秀的专家模型对小模型进行微调，结合了5个小损失函数（两个来源于OT），以尽可能保证知识迁移效果
@@ -1182,39 +1077,163 @@
         两个子任务需要分别调整数据集的输入，为他们分配不同的特权信息，从而避免混淆和出现“作弊”（看到这个子任务不应看到的特权信息）</t>
         </is>
       </c>
+      <c r="T5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3" t="inlineStr"/>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>2026-01-15 20:03:40</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3" t="inlineStr"/>
+      <c r="Y5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>10.1609/icwsm.v19i1.35818</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Identifying and Investigating Global News Coverage of Critical Events Such as Disasters and Terrorist Attacks</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Erica Cai1,Xi Chen1,Reagan Grey Keeney1,Ethan Zuckerman1,Brendan O'Connor1,Przemyslaw A.Grabowicz</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>Event Extraction</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>Traditional computational studies of news coverage bias are hindered by the inability to efficiently and accurately identify articles discussing the same real-world event across massive, multilingual corpora without costly, language-specific training data.
+[翻译] 传统的新闻覆盖偏见计算研究面临一个瓶颈：难以在不依赖昂贵且语言特定的训练数据前提下，高效、精确地从大规模多语言语料库中识别出讨论同一现实事件的报道。</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>It introduces FAME, a scalable, zero-shot framework that utilizes minimalist “event fingerprints” (time, location, class) to match news articles across languages via a two-stage screening pipeline, eliminating the need for annotated training data.
+[翻译] 其提出了FAME框架，这是一个可扩展的零样本方法。它利用极简的“事件指纹”（时间、地点、类别），通过一个两级筛选流程实现跨语言新闻文章匹配，从而无需标注训练数据。</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>The method employs a two-stage pipeline: 1) Heuristic keyword filtering to recall candidate articles within a time window, followed by 2) a semantic filter using a large language model (LLM) for question-answering to achieve high-precision event-article matching.
+[翻译] 该方法采用一个两级处理流程：1）基于关键词的启发式过滤，用于在时间窗口内召回候选文章；2）利用大语言模型进行问答的语义过滤器，以实现高精度的事件-文章匹配。</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>FAME achieved state-of-the-art performance (average F1 &gt; 94% across English, Spanish, and French), and its application revealed that media attention to disasters and terrorist attacks is strongly correlated with death tolls, the GDP of the affected country, and bilateral trade volume.
+[翻译] FAME取得了先进的性能（在英、西、法语上平均F1&gt;94%）。应用该方法发现，媒体对灾害和恐怖袭击的关注度，与死亡人数、受影响国家的GDP以及双边贸易额高度相关。</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>The reliance on a two-stage screening pipeline depends on the quality of external event databases (e.g., GTD), and the minimalist fingerprint design, while enabling scalability, can lead to ambiguities for events with similar metadata.
+[翻译] 两级筛选流程依赖于外部事件数据库（如GTD）的质量，且极简的指纹设计虽然保证了可扩展性，但可能导致具有相似元数据的事件产生匹配歧义。</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35818</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>https://github.com/social-info-lab/disaster_event_analysis</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>ICWSM</t>
+        </is>
+      </c>
+      <c r="N6" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] **中文标题：** 灾害与恐怖袭击等重大事件的全球新闻报道识别与调查分析
+**说明：** 该翻译准确传达了原标题的核心信息，即“识别”与“调查/分析”全球新闻报道。采用“重大事件”概括“Critical Events”，并使用“灾害与恐怖袭击”具体化其范畴，符合中文论文标题简洁、专业的学术风格。</t>
+        </is>
+      </c>
+      <c r="O6" s="3" t="inlineStr">
+        <is>
+          <t>两级匹配筛选要求新闻，关键词匹配初步筛选（关键词通过启发式方法获得）-&gt;事件抽取</t>
+        </is>
+      </c>
+      <c r="P6" s="3" t="inlineStr">
+        <is>
+          <t>figures/FAME.png;figures/FAME2.png</t>
+        </is>
+      </c>
+      <c r="Q6" s="3" t="inlineStr">
+        <is>
+          <t>Comparative studies of news coverage are challenging to conduct because methods to identify news articles about the same event in different languages require expertise that is difficult to scale. We introduce an AI-powered method for identifying news articles based on an event fingerprint, which is a minimal set of metadata required to identify critical events. Our event coverage identification method, FINGERPRINT TO ARTICLE MATCHING FOR EVENTS (FAME), efficiently identifies news articles about critical world events, specifically terrorist attacks and several types of natural disasters. FAME does not require training data and is able to automatically and efficiently identify news articles that discuss an event given its fingerprint: time, location, and class (such as storm or flood). The method achieves state-of-the-art performance and scales to massive databases of tens of millions of news articles and hundreds of events happening globally. We use FAME to identify 27,441 articles that cover 470 natural disaster and terrorist attack events that happened in 2020. To this end, we use a massive database of news articles in three languages from MediaCloud, and three widely used, expert-curated databases of critical events: EM-DAT, USGS, and GTD. Our case study reveals patterns consistent with prior literature: coverage of disasters and terrorist attacks correlates to death counts, to the GDP of a country where the event occurs, and to trade volume between the reporting country and the country where the event occurred. We share our NLP annotations and cross-country media attention data to support the efforts of researchers and media monitoring organizations.</t>
+        </is>
+      </c>
+      <c r="R6" s="3" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S6" s="3" t="inlineStr">
+        <is>
+          <t>[引用文]Cai et al. (2025) propose the FAME framework, aiming to efficiently and accurately identify news reports on specific events from massive, multilingual news streams. Its innovation lies in a two-stage, zero-shot methodology. The framework first applies heuristic filtering using event “fingerprints” (time, location, category) to retrieve candidate articles, followed by a refinement step leveraging an LLM for precise event-article matching. This approach enables scalable, training-free analysis, successfully linking over 27,000 articles to 470 global events.
+[翻译]
+Cai等人(2025)提出的FAME框架，旨在从海量、多语言的新闻流中高效、精确地识别出关于特定事件的报道，其创新在于一种两级、零样本的方法。它首先使用事件“指纹”（时间、地点、类别）进行启发式过滤以获取候选文章，随后通过基于LLM进行事件匹配。这实现了可扩展的、免训练的分析，成功将超过2.7万篇文章与470个全球事件关联起来。</t>
+        </is>
+      </c>
       <c r="T6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="U6" s="3" t="inlineStr"/>
       <c r="V6" s="3" t="inlineStr">
         <is>
-          <t>2026-01-15 20:03:40</t>
+          <t>2026-01-15 20:03:34</t>
         </is>
       </c>
       <c r="W6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="X6" s="3" t="inlineStr"/>
+      <c r="Y6" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>10.1609/icwsm.v19i1.35818</t>
+          <t>10.1609/aaai.v38i16.29730</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Identifying and Investigating Global News Coverage of Critical Events Such as Disasters and Terrorist Attacks</t>
+          <t>Is a Large Language Model a Good Annotator for Event Extraction?</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Erica Cai1,Xi Chen1,Reagan Grey Keeney1,Ethan Zuckerman1,Brendan O'Connor1,Przemyslaw A.Grabowicz</t>
+          <t>Ruirui Chen1,Chengwei Qin,Weifeng Jiang,Dongkyu Choi</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>2025-06-07</t>
+          <t>2024-03-24</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -1224,167 +1243,49 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>Traditional computational studies of news coverage bias are hindered by the inability to efficiently and accurately identify articles discussing the same real-world event across massive, multilingual corpora without costly, language-specific training data.
-[翻译] 传统的新闻覆盖偏见计算研究面临一个瓶颈：难以在不依赖昂贵且语言特定的训练数据前提下，高效、精确地从大规模多语言语料库中识别出讨论同一现实事件的报道。</t>
+          <t>在提示中使用上下文示例来引导大语言模型生成与目标基准数据集分布和标注模式对齐的新样本，从而直接解决数据不平衡问题。</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>It introduces FAME, a scalable, zero-shot framework that utilizes minimalist “event fingerprints” (time, location, class) to match news articles across languages via a two-stage screening pipeline, eliminating the need for annotated training data.
-[翻译] 其提出了FAME框架，这是一个可扩展的零样本方法。它利用极简的“事件指纹”（时间、地点、类别），通过一个两级筛选流程实现跨语言新闻文章匹配，从而无需标注训练数据。</t>
+          <t>[AI generated] Employing LLMs as expert annotators with in-context examples to generate distribution-aligned data, directly addressing data scarcity and imbalance.
+[翻译]
+利用大语言模型作为专家标注器，结合上下文示例生成分布对齐的数据，直接解决数据稀缺与不平衡问题。</t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>The method employs a two-stage pipeline: 1) Heuristic keyword filtering to recall candidate articles within a time window, followed by 2) a semantic filter using a large language model (LLM) for question-answering to achieve high-precision event-article matching.
-[翻译] 该方法采用一个两级处理流程：1）基于关键词的启发式过滤，用于在时间窗口内召回候选文章；2）利用大语言模型进行问答的语义过滤器，以实现高精度的事件-文章匹配。</t>
+          <t>针对“训练样本稀少的（长尾）事件类型，使用合适的prompt模板（包含真实例子）要求LLM生成标注，进行质量筛选，合并到原始数据集，最终通过实验与合并前的效果比较</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>FAME achieved state-of-the-art performance (average F1 &gt; 94% across English, Spanish, and French), and its application revealed that media attention to disasters and terrorist attacks is strongly correlated with death tolls, the GDP of the affected country, and bilateral trade volume.
-[翻译] FAME取得了先进的性能（在英、西、法语上平均F1&gt;94%）。应用该方法发现，媒体对灾害和恐怖袭击的关注度，与死亡人数、受影响国家的GDP以及双边贸易额高度相关。</t>
+          <t>Fine-tuning models like BERT-CRF on the GPT-4-augmented ACE 2005 data led to consistent F1-score improvements in both Event Detection and Argument Extraction tasks, proving the high utility of LLM-generated annotations as a training resource.
+[翻译]
+在GPT-4增强的ACE 2005数据上微调BERT-CRF等模型，在事件检测和论元抽取任务中均带来了F1分数的持续提升，证明了LLM生成的标注作为训练资源的高效用。</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
-          <t>The reliance on a two-stage screening pipeline depends on the quality of external event databases (e.g., GTD), and the minimalist fingerprint design, while enabling scalability, can lead to ambiguities for events with similar metadata.
-[翻译] 两级筛选流程依赖于外部事件数据库（如GTD）的质量，且极简的指纹设计虽然保证了可扩展性，但可能导致具有相似元数据的事件产生匹配歧义。</t>
+          <t>高度依赖LLM自身能力</t>
         </is>
       </c>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35818</t>
+          <t>https://ojs.aaai.org/index.php/AAAI/article/view/29730</t>
         </is>
       </c>
       <c r="L7" s="3" t="inlineStr">
         <is>
-          <t>https://github.com/social-info-lab/disaster_event_analysis</t>
+          <t>https://github.com/shiqinghuayi19/LLMforEvent</t>
         </is>
       </c>
       <c r="M7" s="3" t="inlineStr">
         <is>
-          <t>ICWSM</t>
+          <t>AAAI</t>
         </is>
       </c>
       <c r="N7" s="3" t="inlineStr">
-        <is>
-          <t>[AI generated] **中文标题：** 灾害与恐怖袭击等重大事件的全球新闻报道识别与调查分析
-**说明：** 该翻译准确传达了原标题的核心信息，即“识别”与“调查/分析”全球新闻报道。采用“重大事件”概括“Critical Events”，并使用“灾害与恐怖袭击”具体化其范畴，符合中文论文标题简洁、专业的学术风格。</t>
-        </is>
-      </c>
-      <c r="O7" s="3" t="inlineStr">
-        <is>
-          <t>两级匹配筛选要求新闻，关键词匹配初步筛选（关键词通过启发式方法获得）-&gt;事件抽取</t>
-        </is>
-      </c>
-      <c r="P7" s="3" t="inlineStr">
-        <is>
-          <t>figures/FAME.png;figures/FAME2.png</t>
-        </is>
-      </c>
-      <c r="Q7" s="3" t="inlineStr">
-        <is>
-          <t>Comparative studies of news coverage are challenging to conduct because methods to identify news articles about the same event in different languages require expertise that is difficult to scale. We introduce an AI-powered method for identifying news articles based on an event fingerprint, which is a minimal set of metadata required to identify critical events. Our event coverage identification method, FINGERPRINT TO ARTICLE MATCHING FOR EVENTS (FAME), efficiently identifies news articles about critical world events, specifically terrorist attacks and several types of natural disasters. FAME does not require training data and is able to automatically and efficiently identify news articles that discuss an event given its fingerprint: time, location, and class (such as storm or flood). The method achieves state-of-the-art performance and scales to massive databases of tens of millions of news articles and hundreds of events happening globally. We use FAME to identify 27,441 articles that cover 470 natural disaster and terrorist attack events that happened in 2020. To this end, we use a massive database of news articles in three languages from MediaCloud, and three widely used, expert-curated databases of critical events: EM-DAT, USGS, and GTD. Our case study reveals patterns consistent with prior literature: coverage of disasters and terrorist attacks correlates to death counts, to the GDP of a country where the event occurs, and to trade volume between the reporting country and the country where the event occurred. We share our NLP annotations and cross-country media attention data to support the efforts of researchers and media monitoring organizations.</t>
-        </is>
-      </c>
-      <c r="R7" s="3" t="inlineStr">
-        <is>
-          <t>anonymous</t>
-        </is>
-      </c>
-      <c r="S7" s="3" t="inlineStr">
-        <is>
-          <t>[引用文]Cai et al. (2025) propose the FAME framework, aiming to efficiently and accurately identify news reports on specific events from massive, multilingual news streams. Its innovation lies in a two-stage, zero-shot methodology. The framework first applies heuristic filtering using event “fingerprints” (time, location, category) to retrieve candidate articles, followed by a refinement step leveraging an LLM for precise event-article matching. This approach enables scalable, training-free analysis, successfully linking over 27,000 articles to 470 global events.
-[翻译]
-Cai等人(2025)提出的FAME框架，旨在从海量、多语言的新闻流中高效、精确地识别出关于特定事件的报道，其创新在于一种两级、零样本的方法。它首先使用事件“指纹”（时间、地点、类别）进行启发式过滤以获取候选文章，随后通过基于LLM进行事件匹配。这实现了可扩展的、免训练的分析，成功将超过2.7万篇文章与470个全球事件关联起来。</t>
-        </is>
-      </c>
-      <c r="T7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U7" s="3" t="inlineStr"/>
-      <c r="V7" s="3" t="inlineStr">
-        <is>
-          <t>2026-01-15 20:03:34</t>
-        </is>
-      </c>
-      <c r="W7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>10.1609/aaai.v38i16.29730</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Is a Large Language Model a Good Annotator for Event Extraction?</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>Ruirui Chen1,Chengwei Qin,Weifeng Jiang,Dongkyu Choi</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>2024-03-24</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>Event Extraction</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>在提示中使用上下文示例来引导大语言模型生成与目标基准数据集分布和标注模式对齐的新样本，从而直接解决数据不平衡问题。</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>[AI generated] Employing LLMs as expert annotators with in-context examples to generate distribution-aligned data, directly addressing data scarcity and imbalance.
-[翻译]
-利用大语言模型作为专家标注器，结合上下文示例生成分布对齐的数据，直接解决数据稀缺与不平衡问题。</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
-        <is>
-          <t>针对“训练样本稀少的（长尾）事件类型，使用合适的prompt模板（包含真实例子）要求LLM生成标注，进行质量筛选，合并到原始数据集，最终通过实验与合并前的效果比较</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>Fine-tuning models like BERT-CRF on the GPT-4-augmented ACE 2005 data led to consistent F1-score improvements in both Event Detection and Argument Extraction tasks, proving the high utility of LLM-generated annotations as a training resource.
-[翻译]
-在GPT-4增强的ACE 2005数据上微调BERT-CRF等模型，在事件检测和论元抽取任务中均带来了F1分数的持续提升，证明了LLM生成的标注作为训练资源的高效用。</t>
-        </is>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>高度依赖LLM自身能力</t>
-        </is>
-      </c>
-      <c r="K8" s="3" t="inlineStr">
-        <is>
-          <t>https://ojs.aaai.org/index.php/AAAI/article/view/29730</t>
-        </is>
-      </c>
-      <c r="L8" s="3" t="inlineStr">
-        <is>
-          <t>https://github.com/shiqinghuayi19/LLMforEvent</t>
-        </is>
-      </c>
-      <c r="M8" s="3" t="inlineStr">
-        <is>
-          <t>AAAI</t>
-        </is>
-      </c>
-      <c r="N8" s="3" t="inlineStr">
         <is>
           <t>[AI generated] **中文标题：大语言模型是事件抽取的优秀标注工具吗？**
 **翻译说明：**
@@ -1393,124 +1294,127 @@
 3.  **学术风格**：以疑问句式呈现</t>
         </is>
       </c>
-      <c r="O8" s="3" t="inlineStr">
+      <c r="O7" s="3" t="inlineStr">
         <is>
           <t>[AI generated] This method uses LLMs as expert annotators to generate high-quality training data, akin to employing a master chef to prepare ingredients for a specialized dish. [翻译]该方法利用大语言模型作为专家标注员生成高质量训练数据，如同聘请主厨为特色菜肴准备食材。</t>
         </is>
       </c>
-      <c r="P8" s="3" t="inlineStr">
+      <c r="P7" s="3" t="inlineStr">
         <is>
           <t>figures/Annotator for Event Extraction.png</t>
         </is>
       </c>
-      <c r="Q8" s="3" t="inlineStr">
+      <c r="Q7" s="3" t="inlineStr">
         <is>
           <t>Event extraction is an important task in natural language processing that focuses on mining event-related information from unstructured text. Despite considerable advancements, it is still challenging to achieve satisfactory performance in this task, and issues like data scarcity and imbalance obstruct progress. In this paper, we introduce an innovative approach where we employ Large Language Models (LLMs) as expert annotators for event extraction. We strategically include sample data from the training dataset in the prompt as a reference, ensuring alignment between the data distribution of LLM-generated samples and that of the benchmark dataset. This enables us to craft an augmented dataset that complements existing benchmarks, alleviating the challenges of data imbalance and scarcity and thereby enhancing the performance of fine-tuned models. We conducted extensive experiments to validate the efficacy of our proposed method, and we believe that this approach holds great potential for propelling the development and application of more advanced and reliable event extraction systems in real-world scenarios.</t>
         </is>
       </c>
-      <c r="R8" s="3" t="inlineStr">
+      <c r="R7" s="3" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S8" s="3" t="inlineStr">
+      <c r="S7" s="3" t="inlineStr">
         <is>
           <t>[引用文]To overcome data scarcity in specialized tasks within event extraction, large language models (LLMs) can be utilized as data augmentation tools. The work by Chen et al. (2024) exemplifies this by employing LLMs as structured annotators: using few-shot prompting with models such as GPT-4, they generate synthetic training data aligned with target schemas. This augmentation strategy effectively alleviates long-tail data imbalance and delivers measurable performance improvements for downstream extraction models.
 [翻译]
 为克服事件抽取领域专业任务中的数据稀缺问题，可以将大语言模型作为数据增强工具。Chen等人(2024)的研究通过将大语言模型用作结构化标注器来展示这一点：他们使用少量示例提示GPT-4等模型，生成与目标模式对齐的合成训练数据。这种增强策略有效缓解了长尾数据不平衡问题，为下游抽取模型带来了可观的性能提升。</t>
         </is>
       </c>
-      <c r="T8" s="3" t="b">
+      <c r="T7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U8" s="3" t="inlineStr"/>
-      <c r="V8" s="3" t="inlineStr">
+      <c r="U7" s="3" t="inlineStr"/>
+      <c r="V7" s="3" t="inlineStr">
         <is>
           <t>2026-01-15 20:03:34</t>
         </is>
       </c>
-      <c r="W8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3" t="inlineStr"/>
+      <c r="W7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3" t="inlineStr"/>
+      <c r="Y7" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>10.1109/TPAMI.2022.3144993</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>Reinforced, Incremental and Cross-Lingual Event Detection From Social Messages</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>Hao Peng,Ruitong Zhang,Shaoning Li,Yuwei Cao,Shirui Pan,Philip S. Yu</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>Event Extraction</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>Event detection in social media streams is challenged by ambiguous event features, dispersed text content, multilingualism, and long-tail distribution, where traditional methods struggle in dynamic, incremental, and cross-lingual scenarios.
 [翻译]
 社交媒体流中的事件检测面临事件特征模糊、文本内容分散、多语言和长尾分布等挑战，传统方法在动态、增量和跨语言场景中表现不佳。</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>Its core advancement lies in enabling continuous, cross-lingual social event detection through a life-cycle mechanism that dynamically updates both the message graph and model without full retraining.
 [翻译]
 其核心进步在于，通过一个能动态更新消息图与模型而无需全量重训练的生命周期机制，实现了持续的、跨语言的社交事件检测。</t>
         </is>
       </c>
-      <c r="H9" s="3" t="inlineStr">
+      <c r="H8" s="3" t="inlineStr">
         <is>
           <t>The pipeline includes: (1) constructing a weighted multi-relational graph from social messages; (2) using multi-agent reinforcement learning to learn relation-specific thresholds for neighbor selection and aggregation; (3) training with balanced sampling-based contrastive learning; (4) clustering via DRL-optimized DBSCAN; and (5) enabling incremental updates and cross-lingual transfer via parameter preservation.
 [翻译]
 流程包括：(1) 从社交消息构建加权多关系图；(2) 使用多智能体强化学习学习关系特定的阈值以进行邻居选择和聚合；(3) 通过基于平衡采样的对比学习训练；(4) 使用DRL优化的DBSCAN聚类；(5) 通过参数保留支持增量更新和跨语言迁移。</t>
         </is>
       </c>
-      <c r="I9" s="3" t="inlineStr">
+      <c r="I8" s="3" t="inlineStr">
         <is>
           <t>On Twitter streams, FinEvent significantly outperforms baselines in offline, online, and cross-lingual detection tasks, with improvements of 14%-118% in NMI, 8%-170% in AMI, and 2%-21% in ARI, demonstrating robust performance across diverse settings.
 [翻译]
 在Twitter流数据上，FinEvent在离线、在线和跨语言检测任务中显著优于基线，NMI提升14%-118%，AMI提升8%-170%，ARI提升2%-21%，展现了在不同设置下的鲁棒性能。</t>
         </is>
       </c>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>Limitations include high computational complexity, dependence on external translation for low-resource languages, potential knowledge forgetting during incremental updates, and limited generalization due to evaluation primarily on Twitter data.
 [翻译]
 局限性包括计算复杂度高、对低资源语言依赖外部翻译、增量更新中可能遗忘早期知识，以及由于主要基于Twitter数据评估导致的泛化性有限。</t>
         </is>
       </c>
-      <c r="K9" s="3" t="inlineStr">
+      <c r="K8" s="3" t="inlineStr">
         <is>
           <t>https://ieeexplore.ieee.org/document/9693189/</t>
         </is>
       </c>
-      <c r="L9" s="3" t="inlineStr">
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>https://github.com/RingBDStack/FinEvent</t>
         </is>
       </c>
-      <c r="M9" s="3" t="inlineStr">
+      <c r="M8" s="3" t="inlineStr">
         <is>
           <t>IEEE Transactions on Pattern Analysis and Machine Intelligence</t>
         </is>
       </c>
-      <c r="N9" s="3" t="inlineStr">
+      <c r="N8" s="3" t="inlineStr">
         <is>
           <t>[AI generated] **中文标题：** 基于强化、增量与跨语言学习的社交媒体消息事件检测
 **说明：** 该翻译准确传达了原标题“Reinforced, Incremental and Cross-Lingual Event Detection From Social Messages”的核心要素：
@@ -1519,115 +1423,118 @@
 *   **“Cross</t>
         </is>
       </c>
-      <c r="O9" s="3" t="inlineStr">
+      <c r="O8" s="3" t="inlineStr">
         <is>
           <t>[AI generated] FinEvent is like a multilingual, self-optimizing news curator that continuously learns and adapts from live social media streams. [翻译] FinEvent 如同一个多语言的、自优化的新闻策展人，能从实时社交媒体流中持续学习与适应。</t>
         </is>
       </c>
-      <c r="P9" s="3" t="inlineStr">
+      <c r="P8" s="3" t="inlineStr">
         <is>
           <t>figures/FinEvent.png</t>
         </is>
       </c>
-      <c r="Q9" s="3" t="inlineStr">
+      <c r="Q8" s="3" t="inlineStr">
         <is>
           <t>Detecting hot social events (e.g., political scandal, momentous meetings, natural hazards, etc.) from social messages is crucial as it highlights significant happenings to help people understand the real world. On account of the streaming nature of social messages, incremental social event detection models in acquiring, preserving, and updating messages over time have attracted great attention. However, the challenge is that the existing event detection methods towards streaming social messages are generally confronted with ambiguous events features, dispersive text contents, and multiple languages, and hence result in low accuracy and generalization ability. In this paper, we present a novel reinForced, incremental and cross-lingual social Event detection architecture, namely FinEvent, from streaming social messages. Concretely, we first model social messages into heterogeneous graphs integrating both rich meta-semantics and diverse meta-relations, and convert them to weighted multi-relational message graphs. Second, we propose a new reinforced weighted multi-relational graph neural network framework by using a Multi-agent Reinforcement Learning algorithm to select optimal aggregation thresholds across different relations/edges to learn social message embeddings. To solve the long-tail problem in social event detection, a balanced sampling strategy guided Contrastive Learning mechanism is designed for incremental social message representation learning. Third, a new Deep Reinforcement Learning guided density-based spatial clustering model is designed to select the optimal minimum number of samples required to form a cluster and optimal minimum distance between two clusters in social event detection tasks. Finally, we implement incremental social message representation learning based on knowledge preservation on the graph neural network and achieve the transferring cross-lingual social event detection. We conduct extensive experiments to evaluate the FinEvent on Twitter streams, demonstrating a significant and consistent improvement in model quality with 14%–118%, 8%–170%, and 2%–21% increases in performance on offline, online, and cross-lingual social event detection tasks.</t>
         </is>
       </c>
-      <c r="R9" s="3" t="inlineStr">
+      <c r="R8" s="3" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S9" s="3" t="inlineStr">
+      <c r="S8" s="3" t="inlineStr">
         <is>
           <t>[引用文]Peng et al. (2023) proposed FinEvent, a reinforced, incremental, and cross-lingual detection architecture. Its core innovation lies in a life-cycle learning mechanism that supports incremental adaptation: the system dynamically updates a multi-relational message graph, employs multi-agent reinforcement learning to continuously optimize aggregation strategies, and utilizes a DRL-optimized clustering module to self-adjust parameters for each data block—enabling the model to co-evolve with the social data stream.
 [翻译]
 Peng等人（2023）提出了FinEvent，一个强化的增量与跨语言检测架构。其核心创新在于一个支持增量适应的生命周期学习机制：系统动态更新多关系消息图，并采用多智能体强化学习持续优化聚合策略，同时通过DRL优化的聚类模块实现每个数据块的自调参，使模型能随社交数据流共同演化。[notes]根据消息间的多种语义关系构建异构消息网络网络-&gt;通过多智能体强化学习得到每个关系的保留阈值（多智能体强化指的是每个智能体负责一个关系），对于每个消息节点的每个关系图，通过保留阈值剪除掉对聚合作用低的邻居节点-&gt;先图内聚合，再图间聚合得到每个节点的特征向量-&gt;使用Triplet Loss（拉近同类消息、推远异类消息）和Global-Local Loss（保持图结构的全局一致性）两个损失函数进行GNN训练，得到不同事件区分能力-&gt;使用DRL-DBSCAN进行自适应聚类，得到事件分类输出-&gt;支持增量更新与跨语言迁移</t>
         </is>
       </c>
-      <c r="T9" s="3" t="b">
+      <c r="T8" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U9" s="3" t="inlineStr"/>
-      <c r="V9" s="3" t="inlineStr">
+      <c r="U8" s="3" t="inlineStr"/>
+      <c r="V8" s="3" t="inlineStr">
         <is>
           <t>2026-01-15 20:03:34</t>
         </is>
       </c>
-      <c r="W9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3" t="inlineStr"/>
+      <c r="W8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="inlineStr"/>
+      <c r="Y8" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>10.1609/aaai.v39i12.33430</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>Towards Effective, Efficient and Unsupervised Social Event Detection in the Hyperbolic Space</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Xiaoyan Yu,Yifan Wei,Shuaishuai Zhou,Zhiwei Yang,Li Sun,Hao Peng,Liehuang Zhu*,Philip S. Yu</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>2025-04-11</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>Event Extraction</t>
         </is>
       </c>
-      <c r="F10" s="3" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>Social event detection on social media platforms faces significant challenges due to the large scale, dynamic nature, and complex relational structures inherent in user-generated content. Existing methods often suffer from inefficiency in processing massive message streams and limited expressive power in capturing hierarchical event structures.
 [翻译]：由于用户生成内容规模庞大、动态性强且关系结构复杂，社交媒体平台上的社交事件检测面临显著挑战。现有方法在处理海量消息流时常效率低下，且在捕捉层次化事件结构方面表达能力有限。</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>The paper introduces HyperSED, a novel unsupervised framework that reduces computational overhead through a two-stage compression mechanism—semantic-based anchor construction and graph sparsification—and represents event clusters via a differentiable partitioning tree learned in hyperbolic space. This approach effectively captures hierarchical and nested event structures without requiring predefined cluster counts.
 [翻译]：本文提出HyperSED，一种新颖的无监督框架，通过基于语义的锚点构建与图稀疏化两阶段压缩机制降低计算开销，并利用在双曲空间中学习的可微划分树表示事件聚类。该方法无需预设聚类数量，即可有效捕捉层次化与嵌套的事件结构。</t>
         </is>
       </c>
-      <c r="H10" s="3" t="inlineStr">
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>The framework first constructs a semantic anchor graph to compress message nodes and simplify relational edges. It then maps the anchor graph into hyperbolic space and employs a hyperbolic graph autoencoder to learn structure-aware representations. Finally, a partitioning tree is built and optimized via differentiable structural information minimization, yielding hierarchical event clusters.
 [翻译]：该框架首先构建语义锚点图以压缩消息节点并简化关系边，随后将锚点图映射至双曲空间，采用双曲图自编码器学习结构感知表示，最终通过可微结构信息最小化构建并优化划分树，得到层次化事件簇</t>
         </is>
       </c>
-      <c r="I10" s="3" t="inlineStr">
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>Experiments on real-world Twitter datasets demonstrate that HyperSED achieves competitive performance in normalized mutual information, adjusted mutual information, and adjusted Rand index, while improving computational efficiency by up to 37 times compared to state-of-the-art unsupervised baselines.
 [翻译]：在真实Twitter数据集上的实验表明，HyperSED在归一化互信息、调整互信息与调整兰德指数上均取得具有竞争力的性能，同时相比前沿无监督基线，计算效率提升最高达37倍。</t>
         </is>
       </c>
-      <c r="J10" s="3" t="inlineStr">
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>The performance may marginally decline in some message blocks due to potential errors in anchor construction, where semantically distinct messages are incorrectly grouped. Additionally, the efficiency gains come with a slight trade-off in clustering granularity control.
 [翻译]：由于锚点构建中可能出现语义不同消息被错误分组的情况，该模型在部分消息块上的性能可能略有下降。此外，效率提升在一定程度上以聚类粒度控制的精细度为代价。</t>
         </is>
       </c>
-      <c r="K10" s="3" t="inlineStr">
+      <c r="K9" s="3" t="inlineStr">
         <is>
           <t>https://ojs.aaai.org/index.php/AAAI/article/view/33430</t>
         </is>
       </c>
-      <c r="L10" s="3" t="inlineStr"/>
-      <c r="M10" s="3" t="inlineStr">
+      <c r="L9" s="3" t="inlineStr"/>
+      <c r="M9" s="3" t="inlineStr">
         <is>
           <t>AAAI</t>
         </is>
       </c>
-      <c r="N10" s="3" t="inlineStr">
+      <c r="N9" s="3" t="inlineStr">
         <is>
           <t>[AI generated] 中文标题：面向双曲空间中高效、有效且无监督的社交事件检测
 （说明：该翻译遵循以下原则：
@@ -1637,117 +1544,120 @@
 4. 领域</t>
         </is>
       </c>
-      <c r="O10" s="3" t="inlineStr">
+      <c r="O9" s="3" t="inlineStr">
         <is>
           <t>通过两层压缩减少开销（简化边、节点聚合为锚点），通过划分树表示事件聚类</t>
         </is>
       </c>
-      <c r="P10" s="3" t="inlineStr">
+      <c r="P9" s="3" t="inlineStr">
         <is>
           <t>figures/HyperSED.png</t>
         </is>
       </c>
-      <c r="Q10" s="3" t="inlineStr">
+      <c r="Q9" s="3" t="inlineStr">
         <is>
           <t>The vast, complex, and dynamic nature of social message data has posed challenges to social event detection (SED). Despite considerable effort, these challenges persist, often resulting in inadequately expressive message representations (ineffective) and prolonged learning durations (inefficient). In response to the challenges, this work introduces an unsupervised framework, HyperSED (Hyperbolic SED). Specifically, the proposed framework first models social messages into semantic-based message anchors, and then leverages the structure of the anchor graph and the expressiveness of the hyperbolic space to acquire structure- and geometry-aware anchor representations. Finally, HyperSED builds the partitioning tree of the anchor message graph by incorporating differentiable structural information as the reflection of the detected events. Extensive experiments on public datasets demonstrate HyperSED's competitive performance, along with a substantial improvement in efficiency compared to the current state-of-the-art unsupervised paradigm. Statistically, HyperSED boosts incremental SED by an average of 2%, 2%, and 25% in NMI, AMI, and ARI, respectively; enhancing efficiency by up to 37.41 times and at least 12.10 times, illustrating the advancement of the proposed framework.</t>
         </is>
       </c>
-      <c r="R10" s="3" t="inlineStr">
+      <c r="R9" s="3" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S10" s="3" t="inlineStr">
+      <c r="S9" s="3" t="inlineStr">
         <is>
           <t>[notes]为什么用双曲空间？ 现实世界的事件和话题往往具有层次结构（如“体育 -&gt; 足球 -&gt; 世界杯”）。双曲空间的几何特性（指数级增长的空间）能更自然、更紧凑地嵌入这种树状或层次化数据。&lt;br&gt;[通俗核心]通过消息各属性的相同性（用户、标签）构建网络；通过方法精简网络边【压缩1】；根据相关性将相似信息聚类为锚点，锚点之间有节点相连的构建边，得到锚点图【压缩2】；映射到双曲空间进行自监督重建训练（图自编码器GAE）获得聚合模型；模型输出根据特征向量距离自底向上聚合形成划分树，该树即表示消息各层级聚类关系。每个聚类节点都代表了一个某层级事件（如体育、世界杯、新冠）[引用文]HyperSED demonstrates how structural and geometric inductive biases can be integrated into scalable unsupervised learning (Yu et al., 2025). By compressing the message graph into semantic anchors and learning a partitioning tree in hyperbolic space—where internal nodes formed through bottom‑up aggregation represent concrete event categories—the framework not only enhances detection efficiency but also captures the multi‑scale organization of social events.
 [翻译]HyperSED展示了如何将结构与几何归纳偏置融入可扩展的无监督学习（Yu et al., 2025）。该框架通过将消息图压缩为语义锚点，并在双曲空间中学习划分树——其中通过自底向上聚合形成的内部节点代表具体的事件类别——不仅提升了检测效率，还捕捉了社交事件的多尺度组织特征。</t>
         </is>
       </c>
-      <c r="T10" s="3" t="b">
+      <c r="T9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U10" s="3" t="inlineStr"/>
-      <c r="V10" s="3" t="inlineStr">
+      <c r="U9" s="3" t="inlineStr"/>
+      <c r="V9" s="3" t="inlineStr">
         <is>
           <t>2026-01-15 20:03:24</t>
         </is>
       </c>
-      <c r="W10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3" t="inlineStr"/>
+      <c r="W9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="inlineStr"/>
+      <c r="Y9" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>10.1007/978-981-99-8181-6_33</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>A Three-Stage Framework for Event-Event Relation Extraction with Large Language Model</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Feng Huang,Qiang Huang,YueTong Zhao,ZhiXiao Qi,BingKun Wang,YongFeng Huang,SongBin Li</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>Event Extraction</t>
         </is>
       </c>
-      <c r="F11" s="3" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>Traditional event relation extraction methods rely heavily on annotated data, which is costly and difficult to scale. The zero-shot capability of large language models remains underexplored for temporal and causal relation tasks.
 [翻译]
 传统事件关系提取方法严重依赖标注数据，成本高且难以扩展。大语言模型在时序与因果关系任务中的零样本能力尚未充分挖掘。</t>
         </is>
       </c>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>A three-stage framework (ThreeEERE) is proposed, integrating an improved Auto-CoT prompting strategy with local knowledge retrieval to enable zero-shot event-event relation extraction without task-specific training.
 [翻译]
 提出三阶段框架ThreeEERE，融合改进的Auto-CoT提示策略与本地知识检索，实现无需任务特定训练的零样本事件-关系提取。</t>
         </is>
       </c>
-      <c r="H11" s="3" t="inlineStr">
+      <c r="H10" s="3" t="inlineStr">
         <is>
           <t>构建示范样例（包含cot部分）-&gt;检索本地知识-&gt;取高于阈值的答案</t>
         </is>
       </c>
-      <c r="I11" s="3" t="inlineStr">
+      <c r="I10" s="3" t="inlineStr">
         <is>
           <t>ThreeEERE outperforms standard prompting methods and matches or surpasses several supervised baselines in event, temporal, and causal relation extraction across multiple datasets.
 [翻译]
 在多个数据集上的事件、时序与因果关系提取任务中，ThreeEERE优于标准提示方法，并达到或超越若干监督基线。</t>
         </is>
       </c>
-      <c r="J11" s="3" t="inlineStr">
+      <c r="J10" s="3" t="inlineStr">
         <is>
           <t>Potential inconsistency between generated reasoning chains and gold answers in demonstrations may introduce noise and affect model stability.And it relies on the construction of a local knowledge base.
 [翻译]
 示范中生成的推理链与标准答案之间可能存在不一致，可能引入噪声并影响模型稳定性。且依赖于本地知识库构建</t>
         </is>
       </c>
-      <c r="K11" s="3" t="inlineStr">
+      <c r="K10" s="3" t="inlineStr">
         <is>
           <t>https://link.springer.com/10.1007/978-981-99-8181-6_33</t>
         </is>
       </c>
-      <c r="L11" s="3" t="inlineStr"/>
-      <c r="M11" s="3" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr"/>
+      <c r="M10" s="3" t="inlineStr">
         <is>
           <t>Neural Information Processing</t>
         </is>
       </c>
-      <c r="N11" s="3" t="inlineStr">
+      <c r="N10" s="3" t="inlineStr">
         <is>
           <t>[AI generated] **中文标题：** 基于大语言模型的事件-事件关系提取三阶段框架
 **说明：** 此翻译准确传达了原标题的核心信息：
@@ -1755,19 +1665,131 @@
 2.  **“for Event-Event Relation Extraction”** 译为 **“事件-事件关系提取”**，符合计算机科学和自然语言处理领域的专业术语习惯（“关系抽取”或“</t>
         </is>
       </c>
+      <c r="O10" s="3" t="inlineStr">
+        <is>
+          <t>通过结构化prompt构建的，无训练零样本的，依赖于本地知识库的，事件抽取方法</t>
+        </is>
+      </c>
+      <c r="P10" s="3" t="inlineStr">
+        <is>
+          <t>figures/ThreeEERE.png</t>
+        </is>
+      </c>
+      <c r="Q10" s="3" t="inlineStr">
+        <is>
+          <t>Expanding the parameter count of a large language model (LLM) alone is insufficient to achieve satisfactory outcomes in natural language processing tasks, specifically event extraction (EE), event temporal relation extraction (ETRE), and event causal relation extraction (ECRE). To tackle these challenges, we propose a novel three-stage extraction framework (ThreeEERE) that integrates an improved automatic chain of thought prompting (Auto-CoT) with LLM and is tailored based on a golden rule to maximize event and relation extraction precision. The three stages include constructing examples in each category, federating local knowledge to extract relationships between events, and selecting the best answer. By following these stages, we can achieve our objective. Although supervised models dominate for these tasks, our experiments on three types of extraction tasks demonstrate that utilizing these three stages approach yields significant results in event extraction and event relation extraction, even surpassing some supervised model methods in the extraction task.</t>
+        </is>
+      </c>
+      <c r="R10" s="3" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S10" s="3" t="inlineStr">
+        <is>
+          <t>[notes]聚类只是为了选择最接近聚类中心的测试样本，作为示范样例（因为接近中心意味着更能代表该聚类语义特征），之后的操作就是输入测试样例和这些示范样例（答案部分替换为标准答案）以及检索得到的本地知识，最终取超过阈值的结果&lt;br&gt;[引用文]The three-stage framework proposed by Huang et al. (2024) integrates chain-of-thought reasoning with localized knowledge, demonstrating the feasibility of eliciting zero-shot inference of complex event relations from large language models through meticulously designed prompts, without the need for supervised fine-tuning.
+[翻译]
+Huang等人（2024）提出的三阶段框架，将思维链推理与本地化知识相结合，证明了通过精心设计的提示词，无需监督微调即可从大语言模型中激发出对复杂事件关系的零样本推断能力。</t>
+        </is>
+      </c>
+      <c r="T10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" s="3" t="inlineStr"/>
+      <c r="V10" s="3" t="inlineStr">
+        <is>
+          <t>2026-01-15 20:03:24</t>
+        </is>
+      </c>
+      <c r="W10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3" t="inlineStr"/>
+      <c r="Y10" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>10.1609/aaai.v37i4.25614</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>TOT: Topology-Aware Optimal Transport for Multimodal Hate Detection</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Linhao Zhang，Li Jin，Xian Sun，Guangluan Xu，Zequn Zhang,Xiaoyu Li,Nayu Liu,Qing Liu,Shiyao Yan</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>2023-06-26</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Hate Speech Analysis</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>为了解决多模态仇恨检测中因” 隐式对齐” 和” 模态鸿沟” 导致的图像和文本跨模态语义对齐难题</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>将OT用于特征对齐，将句子级对齐细粒化至向量级，为后续工作提供了“显式对齐+结构推理”的范式</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>最优传输 + 拓扑结构推理方法 TOT：CLIP 方法统一表征映射-&gt;最优传输optimal transport (OT)将隐式联系细粒化为向量级（这是一个数学计算过程，不涉及需要学习的参数）-&gt;类GNN迭代捕捉自身语义联系（类自注意力）（因为向量间距离意义明确）-&gt;残差连接</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>达成了在两个有害 Meme 检测数据集（Harm-C, Harm-P）上的最先进性能；</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>对齐和推理仍局限于特征层面，未上升到语义单元（如事件、概念）层面，OT过程为冻结无法训练的，可以训练其参数以实现更好的对齐；对于幽默等类似隐式表达容易误判</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>https://ojs.aaai.org/index.php/AAAI/article/view/25614</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr"/>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>Proceedings of the AAAI Conference on Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="N11" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] **中文标题：** TOT：面向多模态仇恨检测的拓扑感知最优传输方法</t>
+        </is>
+      </c>
       <c r="O11" s="3" t="inlineStr">
         <is>
-          <t>通过结构化prompt构建的，无训练零样本的，依赖于本地知识库的，事件抽取方法</t>
+          <t>强化恶意Meme的图像与文本之间的语义对齐，使用OT方法建立特征向量间的可解释联系</t>
         </is>
       </c>
       <c r="P11" s="3" t="inlineStr">
         <is>
-          <t>figures/ThreeEERE.png</t>
+          <t>figures/TOT.png</t>
         </is>
       </c>
       <c r="Q11" s="3" t="inlineStr">
         <is>
-          <t>Expanding the parameter count of a large language model (LLM) alone is insufficient to achieve satisfactory outcomes in natural language processing tasks, specifically event extraction (EE), event temporal relation extraction (ETRE), and event causal relation extraction (ECRE). To tackle these challenges, we propose a novel three-stage extraction framework (ThreeEERE) that integrates an improved automatic chain of thought prompting (Auto-CoT) with LLM and is tailored based on a golden rule to maximize event and relation extraction precision. The three stages include constructing examples in each category, federating local knowledge to extract relationships between events, and selecting the best answer. By following these stages, we can achieve our objective. Although supervised models dominate for these tasks, our experiments on three types of extraction tasks demonstrate that utilizing these three stages approach yields significant results in event extraction and event relation extraction, even surpassing some supervised model methods in the extraction task.</t>
+          <t>Multimodal hate detection, which aims to identify the harmful content online such as memes, is crucial for building a wholesome internet environment. Previous work has made enlightening exploration in detecting explicit hate remarks. However, most of their approaches neglect the analysis of implicit harm, which is particularly challenging as explicit text markers and demographic visual cues are often twisted or missing. The leveraged cross-modal attention mechanisms also suffer from the distributional modality gap and lack logical interpretability. To address these 
+semantic gap issues, we propose TOT: a topology-aware optimal transport framework to decipher the implicit harm in memes scenario, which formulates the cross-modal aligning problem as solutions for optimal transportation plans. Specifically, we leverage an optimal transport kernel method to capture complementary information from multiple modalities. The kernel embedding provides a non-linear transformation ability to reproduce a kernel Hilbert space (RKHS), which reflects significance for eliminating the distributional modality gap. Moreover, we perceive the topology information based on aligned representations to conduct bipartite graph path reasoning. The newly achieved state-of-the-art performance on two publicly available benchmark datasets, together with  further visual analysis, demonstrate the superiority of TOT in capturing implicit cross-modal alignment.</t>
         </is>
       </c>
       <c r="R11" s="3" t="inlineStr">
@@ -1777,9 +1799,7 @@
       </c>
       <c r="S11" s="3" t="inlineStr">
         <is>
-          <t>[notes]聚类只是为了选择最接近聚类中心的测试样本，作为示范样例（因为接近中心意味着更能代表该聚类语义特征），之后的操作就是输入测试样例和这些示范样例（答案部分替换为标准答案）以及检索得到的本地知识，最终取超过阈值的结果&lt;br&gt;[引用文]The three-stage framework proposed by Huang et al. (2024) integrates chain-of-thought reasoning with localized knowledge, demonstrating the feasibility of eliciting zero-shot inference of complex event relations from large language models through meticulously designed prompts, without the need for supervised fine-tuning.
-[翻译]
-Huang等人（2024）提出的三阶段框架，将思维链推理与本地化知识相结合，证明了通过精心设计的提示词，无需监督微调即可从大语言模型中激发出对复杂事件关系的零样本推断能力。</t>
+          <t>最优传输OT负责回答“图片的哪个部分和文本的哪个词相关？”（实现统一且对齐的表示，从而建立跨模态的显式联系，OT方法是可解释的）。【即将CLIP生成的特征矩阵级别的对齐，细化为特征向量间的对齐，两个特征矩阵会更相像。这种显式对齐能力本质上来源于CLIP实现的隐对齐】；拓扑建模负责回答“这些相关的部分组合在一起，表达了什么更深层的含义？”（捕捉文本（图片）中互相有联系的token（patch），进行模态内的深度推理）。【这种类似GNN的方法本质上是更有层次性的自注意力机制，天然适用于处理关系型数据（图结构）】；本质上是将CLIP建立的隐式对齐细粒化为向量层级的显式对齐，进而得以使用图推理进一步学习内部联系</t>
         </is>
       </c>
       <c r="T11" s="3" t="b">
@@ -1788,33 +1808,36 @@
       <c r="U11" s="3" t="inlineStr"/>
       <c r="V11" s="3" t="inlineStr">
         <is>
-          <t>2026-01-15 20:03:24</t>
+          <t>2026-01-15 20:03:40</t>
         </is>
       </c>
       <c r="W11" s="3" t="b">
         <v>0</v>
       </c>
       <c r="X11" s="3" t="inlineStr"/>
+      <c r="Y11" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>10.1609/aaai.v37i4.25614</t>
+          <t>10.1109/TMM.2025.3581795</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>TOT: Topology-Aware Optimal Transport for Multimodal Hate Detection</t>
+          <t>Flexible optimal transport with contrastive graphical modeling for multimodal hate detection</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>Linhao Zhang，Li Jin，Xian Sun，Guangluan Xu，Zequn Zhang,Xiaoyu Li,Nayu Liu,Qing Liu,Shiyao Yan</t>
+          <t>Linhao Zhang，Li Jin，Xiaoyu Li,Xian Sun,Senior Member,IEEE,Xin Wang,Zequn Zhang,Jian Liu，Zhicong Lu，Graduate Student Member,IEEE,and Guangluan Xu</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>2023-06-26</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -1824,59 +1847,60 @@
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>为了解决多模态仇恨检测中因” 隐式对齐” 和” 模态鸿沟” 导致的图像和文本跨模态语义对齐难题</t>
+          <t>社媒中隐含仇恨内容检测困难，传统方法难以实现跨模态隐式对齐。</t>
         </is>
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>将OT用于特征对齐，将句子级对齐细粒化至向量级，为后续工作提供了“显式对齐+结构推理”的范式</t>
+          <t>相对于同团队的TOT是改进</t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>最优传输 + 拓扑结构推理方法 TOT：CLIP 方法统一表征映射-&gt;最优传输optimal transport (OT)将隐式联系细粒化为向量级（这是一个数学计算过程，不涉及需要学习的参数）-&gt;类GNN迭代捕捉自身语义联系（类自注意力）（因为向量间距离意义明确）-&gt;残差连接</t>
+          <t>相对于同团队的TOT:1.OT的目标域不再是另一模态的特征，而是可学习的统一嵌入（OT引入可学习的参数，它们是两个模态各自对应的目标特征矩阵 $T_v$ 和 $T_t$）；2.引入了图对比学习损失，显式约束一致性（比较两个图的相似程度作为一个损失，之后才进行类GNN聚合（动态拓扑推理））</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>达成了在两个有害 Meme 检测数据集（Harm-C, Harm-P）上的最先进性能；</t>
+          <t>在Harm-C、Harm-P、MET-Meme三个数据集上取得SOTA，显著提升准确率与F1</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
-          <t>对齐和推理仍局限于特征层面，未上升到语义单元（如事件、概念）层面，OT过程为冻结无法训练的，可以训练其参数以实现更好的对齐；对于幽默等类似隐式表达容易误判</t>
+          <t>对于幽默等类似隐式表达容易误判</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>https://ojs.aaai.org/index.php/AAAI/article/view/25614</t>
+          <t>https://ieeexplore.ieee.org/abstract/document/11045556</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr"/>
       <c r="M12" s="3" t="inlineStr">
         <is>
-          <t>Proceedings of the AAAI Conference on Artificial Intelligence</t>
+          <t>IEEE Transactions on Multimedia</t>
         </is>
       </c>
       <c r="N12" s="3" t="inlineStr">
         <is>
-          <t>[AI generated] **中文标题：** TOT：面向多模态仇恨检测的拓扑感知最优传输方法</t>
+          <t>[AI generated] **中文标题：** 基于对比图建模与灵活最优传输的多模态仇恨内容检测
+**说明：**  
+此翻译在准确传达原文技术核心（Flexible Optimal Transport、contrastive graphical modeling）的同时，兼顾了学术表达的简洁性与专业性。采用“灵活最优传输”以突出方法对非显式跨模态关联的适应性，并通过“对比图建模”明确其结构化表征优化机制，整体符合计算机视觉与自然语言处理交叉领域的术语规范。</t>
         </is>
       </c>
       <c r="O12" s="3" t="inlineStr">
         <is>
-          <t>强化恶意Meme的图像与文本之间的语义对齐，使用OT方法建立特征向量间的可解释联系</t>
+          <t>[AI generated] This method bridges multimodal gaps like a flexible translator, aligning implicit hateful memes through optimal transport and contrastive graphs. [翻译]该方法通过最优传输和图对比学习，像灵活的翻译官一样弥合模态鸿沟，对齐隐含仇恨表情包。</t>
         </is>
       </c>
       <c r="P12" s="3" t="inlineStr">
         <is>
-          <t>figures/TOT.png</t>
+          <t>figures/FLOT1.png;figures/FLOT.png</t>
         </is>
       </c>
       <c r="Q12" s="3" t="inlineStr">
         <is>
-          <t>Multimodal hate detection, which aims to identify the harmful content online such as memes, is crucial for building a wholesome internet environment. Previous work has made enlightening exploration in detecting explicit hate remarks. However, most of their approaches neglect the analysis of implicit harm, which is particularly challenging as explicit text markers and demographic visual cues are often twisted or missing. The leveraged cross-modal attention mechanisms also suffer from the distributional modality gap and lack logical interpretability. To address these 
-semantic gap issues, we propose TOT: a topology-aware optimal transport framework to decipher the implicit harm in memes scenario, which formulates the cross-modal aligning problem as solutions for optimal transportation plans. Specifically, we leverage an optimal transport kernel method to capture complementary information from multiple modalities. The kernel embedding provides a non-linear transformation ability to reproduce a kernel Hilbert space (RKHS), which reflects significance for eliminating the distributional modality gap. Moreover, we perceive the topology information based on aligned representations to conduct bipartite graph path reasoning. The newly achieved state-of-the-art performance on two publicly available benchmark datasets, together with  further visual analysis, demonstrate the superiority of TOT in capturing implicit cross-modal alignment.</t>
+          <t>Multimodal hate detection plays a crucial role in maintaining harmonious online environments by identifying harmful content, such as hateful memes. Although previous research has made significant progress in detecting explicit hate speech, there remains a critical gap in analyzing implicit hate, which is particularly challenging due to the absence of explicit harmful text claims or demographic visual cues. Despite the promising results based on cross-modal attention, previous methods may suffer from the distributional modality gap caused by the non-literal associations between multimodal elements, which lacks apparent alignment in implicit hateful contents. In this work, we propose a novel framework: Flexible Optimal Transport (FLOT) to capture the non-literal cross-modal alignment for multimodal hate in the context of memes. FLOT formulates the problem of cross-modal alignment as finding optimal transportation plans, which leverages a kernel method to capture complementary information from multiple modalities. The kernel embeddings reproduce a kernel Hilbert space (RKHS) to serve as a non-linear transformation of alignment, which effectively reduces the distributional modality gap with more interpretability. Moreover, we established topological structures with contrastive modeling for the aligned representations, which are optimized to achieve comprehensive alignment between different modalities, and facilitate local reasoning based on multimodal elements. Experimental results have demonstrated that our FLOT achieved state-of-the-art performance on three publicly available benchmark datasets. Furthermore, extensive qualitative analysis confirms the superior ability of FLOT in capturing implicit cross-modal alignment.</t>
         </is>
       </c>
       <c r="R12" s="3" t="inlineStr">
@@ -1884,11 +1908,7 @@
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S12" s="3" t="inlineStr">
-        <is>
-          <t>最优传输OT负责回答“图片的哪个部分和文本的哪个词相关？”（实现统一且对齐的表示，从而建立跨模态的显式联系，OT方法是可解释的）。【即将CLIP生成的特征矩阵级别的对齐，细化为特征向量间的对齐，两个特征矩阵会更相像。这种显式对齐能力本质上来源于CLIP实现的隐对齐】；拓扑建模负责回答“这些相关的部分组合在一起，表达了什么更深层的含义？”（捕捉文本（图片）中互相有联系的token（patch），进行模态内的深度推理）。【这种类似GNN的方法本质上是更有层次性的自注意力机制，天然适用于处理关系型数据（图结构）】；本质上是将CLIP建立的隐式对齐细粒化为向量层级的显式对齐，进而得以使用图推理进一步学习内部联系</t>
-        </is>
-      </c>
+      <c r="S12" s="3" t="inlineStr"/>
       <c r="T12" s="3" t="b">
         <v>1</v>
       </c>
@@ -1902,26 +1922,29 @@
         <v>0</v>
       </c>
       <c r="X12" s="3" t="inlineStr"/>
+      <c r="Y12" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>10.1109/TMM.2025.3581795</t>
+          <t>10.18653/v1/2024.acl-long.291</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Flexible optimal transport with contrastive graphical modeling for multimodal hate detection</t>
+          <t>Improving Hateful Meme Detection through Retrieval-Guided Contrastive Learning</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Linhao Zhang，Li Jin，Xiaoyu Li,Xian Sun,Senior Member,IEEE,Xin Wang,Zequn Zhang,Jian Liu，Zhicong Lu，Graduate Student Member,IEEE,and Guangluan Xu</t>
+          <t>Jingbiao Mei,Jinghong Chen,Weizhe Lin,Bill Byrne,Maarcus Tomalin</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -1931,119 +1954,15 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>社媒中隐含仇恨内容检测困难，传统方法难以实现跨模态隐式对齐。</t>
+          <t>现有CLIP等模型对仇恨表情包的图像-文本的细微差异（如“混淆样本”）敏感度不足，导致的误判。</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>相对于同团队的TOT是改进</t>
+          <t>对于易混淆的难例（与当前样本相似度最高但标签相反的），使用**动态检索**方式单拉出来，与**伪黄金正样本**（和当前样本相似度最高的标签相同的）成对，作为正反例进行对比学习。从而解决问题</t>
         </is>
       </c>
       <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>相对于同团队的TOT:1.OT的目标域不再是另一模态的特征，而是可学习的统一嵌入（OT引入可学习的参数，它们是两个模态各自对应的目标特征矩阵 $T_v$ 和 $T_t$）；2.引入了图对比学习损失，显式约束一致性（比较两个图的相似程度作为一个损失，之后才进行类GNN聚合（动态拓扑推理））</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>在Harm-C、Harm-P、MET-Meme三个数据集上取得SOTA，显著提升准确率与F1</t>
-        </is>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t>对于幽默等类似隐式表达容易误判</t>
-        </is>
-      </c>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>https://ieeexplore.ieee.org/abstract/document/11045556</t>
-        </is>
-      </c>
-      <c r="L13" s="3" t="inlineStr"/>
-      <c r="M13" s="3" t="inlineStr">
-        <is>
-          <t>IEEE Transactions on Multimedia</t>
-        </is>
-      </c>
-      <c r="N13" s="3" t="inlineStr">
-        <is>
-          <t>[AI generated] **中文标题：** 基于对比图建模与灵活最优传输的多模态仇恨内容检测
-**说明：**  
-此翻译在准确传达原文技术核心（Flexible Optimal Transport、contrastive graphical modeling）的同时，兼顾了学术表达的简洁性与专业性。采用“灵活最优传输”以突出方法对非显式跨模态关联的适应性，并通过“对比图建模”明确其结构化表征优化机制，整体符合计算机视觉与自然语言处理交叉领域的术语规范。</t>
-        </is>
-      </c>
-      <c r="O13" s="3" t="inlineStr">
-        <is>
-          <t>[AI generated] This method bridges multimodal gaps like a flexible translator, aligning implicit hateful memes through optimal transport and contrastive graphs. [翻译]该方法通过最优传输和图对比学习，像灵活的翻译官一样弥合模态鸿沟，对齐隐含仇恨表情包。</t>
-        </is>
-      </c>
-      <c r="P13" s="3" t="inlineStr">
-        <is>
-          <t>figures/FLOT1.png;figures/FLOT.png</t>
-        </is>
-      </c>
-      <c r="Q13" s="3" t="inlineStr">
-        <is>
-          <t>Multimodal hate detection plays a crucial role in maintaining harmonious online environments by identifying harmful content, such as hateful memes. Although previous research has made significant progress in detecting explicit hate speech, there remains a critical gap in analyzing implicit hate, which is particularly challenging due to the absence of explicit harmful text claims or demographic visual cues. Despite the promising results based on cross-modal attention, previous methods may suffer from the distributional modality gap caused by the non-literal associations between multimodal elements, which lacks apparent alignment in implicit hateful contents. In this work, we propose a novel framework: Flexible Optimal Transport (FLOT) to capture the non-literal cross-modal alignment for multimodal hate in the context of memes. FLOT formulates the problem of cross-modal alignment as finding optimal transportation plans, which leverages a kernel method to capture complementary information from multiple modalities. The kernel embeddings reproduce a kernel Hilbert space (RKHS) to serve as a non-linear transformation of alignment, which effectively reduces the distributional modality gap with more interpretability. Moreover, we established topological structures with contrastive modeling for the aligned representations, which are optimized to achieve comprehensive alignment between different modalities, and facilitate local reasoning based on multimodal elements. Experimental results have demonstrated that our FLOT achieved state-of-the-art performance on three publicly available benchmark datasets. Furthermore, extensive qualitative analysis confirms the superior ability of FLOT in capturing implicit cross-modal alignment.</t>
-        </is>
-      </c>
-      <c r="R13" s="3" t="inlineStr">
-        <is>
-          <t>anonymous</t>
-        </is>
-      </c>
-      <c r="S13" s="3" t="inlineStr"/>
-      <c r="T13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U13" s="3" t="inlineStr"/>
-      <c r="V13" s="3" t="inlineStr">
-        <is>
-          <t>2026-01-15 20:03:40</t>
-        </is>
-      </c>
-      <c r="W13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X13" s="3" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>10.18653/v1/2024.acl-long.291</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Improving Hateful Meme Detection through Retrieval-Guided Contrastive Learning</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Jingbiao Mei,Jinghong Chen,Weizhe Lin,Bill Byrne,Maarcus Tomalin</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>Hate Speech Analysis</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>现有CLIP等模型对仇恨表情包的图像-文本的细微差异（如“混淆样本”）敏感度不足，导致的误判。</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>对于易混淆的难例（与当前样本相似度最高但标签相反的），使用**动态检索**方式单拉出来，与**伪黄金正样本**（和当前样本相似度最高的标签相同的）成对，作为正反例进行对比学习。从而解决问题</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
         <is>
           <t>1. 使用冻结的CLIP编码器提取图文特征；
 2. 通过Faiss检索动态获取同类相似样本（伪黄金正样本）与异类相似样本（困难负样本）作为正反例；
@@ -2051,135 +1970,138 @@
 4. 实现逻辑分类与KNN检索分类两种分类器，后者通过相似度加权投票进行预测。</t>
         </is>
       </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>在HatefulMemes数据集上达到 AUROC 87.0%（SOTA），超越Flamingo-80B等大型多模态模型</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>仇恨言论的定义具有争议性与文化依赖性；系统对 细微面部表情 识别能力有限；依赖数据标注质量，可能存在标注偏差。</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>https://aclanthology.org/2024.acl-long.291</t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="inlineStr"/>
+      <c r="M13" s="3" t="inlineStr">
+        <is>
+          <t>ACL 2024</t>
+        </is>
+      </c>
+      <c r="N13" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] **中文标题：** 通过检索引导的对比学习提升仇恨表情包检测性能
+**说明：** 该翻译准确传达了原标题的技术核心（检索引导的对比学习方法）与研究目标（提升仇恨表情包检测），符合计算机科学领域，特别是多模态内容分析与仇恨言论检测方向的学术表达规范，风格专业、简洁。</t>
+        </is>
+      </c>
+      <c r="O13" s="3" t="inlineStr">
+        <is>
+          <t>专题强化：难学样本单拉出来与正例进行对比学习，从而提高识别能力</t>
+        </is>
+      </c>
+      <c r="P13" s="3" t="inlineStr">
+        <is>
+          <t>figures/RGCL.png</t>
+        </is>
+      </c>
+      <c r="Q13" s="3" t="inlineStr">
+        <is>
+          <t>Hateful memes have emerged as a significant concern on the Internet. Detecting hateful memes requires the system to jointly understand the visual and textual modalities. Our investigation reveals that the embedding space of existing CLIP-based systems lacks sensitivity to subtle differences in memes that are vital for correct hatefulness classification. We propose constructing a hatefulness-aware embedding space through retrieval-guided contrastive training. Our approach achieves state-of-the-art performance on the HatefulMemes dataset with an AUROC of 87.0, outperforming much larger fine-tuned large multimodal models. We demonstrate a retrieval-based hateful memes detection system, which is capable of identifying hatefulness based on data unseen in training. This allows developers to update the hateful memes detection system by simply adding new examples without retraining — a desirable feature for real services in the constantly evolving landscape of hateful memes on the Internet.</t>
+        </is>
+      </c>
+      <c r="R13" s="3" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S13" s="3" t="inlineStr"/>
+      <c r="T13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U13" s="3" t="inlineStr"/>
+      <c r="V13" s="3" t="inlineStr">
+        <is>
+          <t>2026-01-15 20:03:40</t>
+        </is>
+      </c>
+      <c r="W13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3" t="inlineStr"/>
+      <c r="Y13" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>10.1609/icwsm.v19i1.35837</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Human and LLM Biases in Hate Speech Annotations: A Socio-Demographic Analysis of Annotators and Targets</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Tommaso Giorgi*,Lorenzo Cima*,Tiziano Fagni,Marco Avvenuti,Stefano Cresci</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>Hate Speech Analysis</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>该领域需要大量人工标注，存在固有的主观性bias问题，需要系统性的研究</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>The authors introduce a novel methodological framework on the Measuring Hate Speech corpus that quantifies bias through "Intensity" and "Prevalence" metrics without relying on ground truth, uniquely isolating the interplay between specific annotator profiles and target groups.
+[翻译] 指标设计：提出了偏差强度（Intensity, 𝐼）和偏差普遍性（Prevalence, 𝑃），无需Ground Truth即可衡量相对偏差（将**其余所有标注者（Reference Group）**的共识作为基准）。&lt;br&gt;LLM对齐分析：评估了角色扮演LLM在“复现标注偏差”任务上的能力</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>Leveraging a large-scale dataset with rich demographic attributes, the methodology employs a comparative analysis using confusion matrices to measure relative labeling discrepancies between demographic groups, subsequently evaluating open-source LLMs via role-playing prompts to assess their alignment with human bias patterns.
+[翻译]通过**混淆矩阵**（行代表不具备该属性，列代表具备该属性）对比特定属性群体在评价特定属性受害者时的标签差异。计算偏差强度和普遍性\n使用**prompt**引导LLM进行相同任务以对比</t>
+        </is>
+      </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>在HatefulMemes数据集上达到 AUROC 87.0%（SOTA），超越Flamingo-80B等大型多模态模型</t>
+          <t>Quantitative analysis reveals that while human annotators exhibit significant "in-group" hypersensitivity and demographic-specific labeling variations, persona-based LLMs demonstrate a limited correlation with these human biases, failing to accurately mirror the complex social prejudices inherent in human data.
+[翻译] 人类偏差：存在显著的“组内高敏度”（即倾向于高估针对自身群体的仇恨），受人口统计学交互影响严重（如年轻人倾向低估仇恨，老年人倾向高估）。&lt;br&gt;LLM表现：M表现出自身偏差，但未能有效复现人类的特定偏差（相关性极低），**欠缺对齐能力**（高估代表更敏感）</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t>仇恨言论的定义具有争议性与文化依赖性；系统对 细微面部表情 识别能力有限；依赖数据标注质量，可能存在标注偏差。</t>
+          <t>The study's limitations include data scarcity for specific minority groups which constrains statistical significance, and a reliance solely on prompting strategies without fine-tuning, which may restrict the models' capacity for deep behavioral mimicry.
+[翻译] 该研究的局限性包括特定少数群体的数据稀缺限制了统计显著性，以及仅仅依赖提示策略而没有进行微调，这可能限制了模型的深度行为模仿能力。</t>
         </is>
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>https://aclanthology.org/2024.acl-long.291</t>
+          <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35837</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr"/>
       <c r="M14" s="3" t="inlineStr">
         <is>
-          <t>ACL 2024</t>
+          <t>ICWSM</t>
         </is>
       </c>
       <c r="N14" s="3" t="inlineStr">
-        <is>
-          <t>[AI generated] **中文标题：** 通过检索引导的对比学习提升仇恨表情包检测性能
-**说明：** 该翻译准确传达了原标题的技术核心（检索引导的对比学习方法）与研究目标（提升仇恨表情包检测），符合计算机科学领域，特别是多模态内容分析与仇恨言论检测方向的学术表达规范，风格专业、简洁。</t>
-        </is>
-      </c>
-      <c r="O14" s="3" t="inlineStr">
-        <is>
-          <t>专题强化：难学样本单拉出来与正例进行对比学习，从而提高识别能力</t>
-        </is>
-      </c>
-      <c r="P14" s="3" t="inlineStr">
-        <is>
-          <t>figures/RGCL.png</t>
-        </is>
-      </c>
-      <c r="Q14" s="3" t="inlineStr">
-        <is>
-          <t>Hateful memes have emerged as a significant concern on the Internet. Detecting hateful memes requires the system to jointly understand the visual and textual modalities. Our investigation reveals that the embedding space of existing CLIP-based systems lacks sensitivity to subtle differences in memes that are vital for correct hatefulness classification. We propose constructing a hatefulness-aware embedding space through retrieval-guided contrastive training. Our approach achieves state-of-the-art performance on the HatefulMemes dataset with an AUROC of 87.0, outperforming much larger fine-tuned large multimodal models. We demonstrate a retrieval-based hateful memes detection system, which is capable of identifying hatefulness based on data unseen in training. This allows developers to update the hateful memes detection system by simply adding new examples without retraining — a desirable feature for real services in the constantly evolving landscape of hateful memes on the Internet.</t>
-        </is>
-      </c>
-      <c r="R14" s="3" t="inlineStr">
-        <is>
-          <t>anonymous</t>
-        </is>
-      </c>
-      <c r="S14" s="3" t="inlineStr"/>
-      <c r="T14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U14" s="3" t="inlineStr"/>
-      <c r="V14" s="3" t="inlineStr">
-        <is>
-          <t>2026-01-15 20:03:40</t>
-        </is>
-      </c>
-      <c r="W14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>10.1609/icwsm.v19i1.35837</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>Human and LLM Biases in Hate Speech Annotations: A Socio-Demographic Analysis of Annotators and Targets</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>Tommaso Giorgi*,Lorenzo Cima*,Tiziano Fagni,Marco Avvenuti,Stefano Cresci</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>2025-06-07</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>Hate Speech Analysis</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>该领域需要大量人工标注，存在固有的主观性bias问题，需要系统性的研究</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>The authors introduce a novel methodological framework on the Measuring Hate Speech corpus that quantifies bias through "Intensity" and "Prevalence" metrics without relying on ground truth, uniquely isolating the interplay between specific annotator profiles and target groups.
-[翻译] 指标设计：提出了偏差强度（Intensity, 𝐼）和偏差普遍性（Prevalence, 𝑃），无需Ground Truth即可衡量相对偏差（将**其余所有标注者（Reference Group）**的共识作为基准）。&lt;br&gt;LLM对齐分析：评估了角色扮演LLM在“复现标注偏差”任务上的能力</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>Leveraging a large-scale dataset with rich demographic attributes, the methodology employs a comparative analysis using confusion matrices to measure relative labeling discrepancies between demographic groups, subsequently evaluating open-source LLMs via role-playing prompts to assess their alignment with human bias patterns.
-[翻译]通过**混淆矩阵**（行代表不具备该属性，列代表具备该属性）对比特定属性群体在评价特定属性受害者时的标签差异。计算偏差强度和普遍性\n使用**prompt**引导LLM进行相同任务以对比</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>Quantitative analysis reveals that while human annotators exhibit significant "in-group" hypersensitivity and demographic-specific labeling variations, persona-based LLMs demonstrate a limited correlation with these human biases, failing to accurately mirror the complex social prejudices inherent in human data.
-[翻译] 人类偏差：存在显著的“组内高敏度”（即倾向于高估针对自身群体的仇恨），受人口统计学交互影响严重（如年轻人倾向低估仇恨，老年人倾向高估）。&lt;br&gt;LLM表现：M表现出自身偏差，但未能有效复现人类的特定偏差（相关性极低），**欠缺对齐能力**（高估代表更敏感）</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>The study's limitations include data scarcity for specific minority groups which constrains statistical significance, and a reliance solely on prompting strategies without fine-tuning, which may restrict the models' capacity for deep behavioral mimicry.
-[翻译] 该研究的局限性包括特定少数群体的数据稀缺限制了统计显著性，以及仅仅依赖提示策略而没有进行微调，这可能限制了模型的深度行为模仿能力。</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35837</t>
-        </is>
-      </c>
-      <c r="L15" s="3" t="inlineStr"/>
-      <c r="M15" s="3" t="inlineStr">
-        <is>
-          <t>ICWSM</t>
-        </is>
-      </c>
-      <c r="N15" s="3" t="inlineStr">
         <is>
           <t>[AI generated] **中文标题：仇恨言论标注中的人类与大型语言模型偏见：标注者与目标群体的社会人口学分析**
 **说明：**
@@ -2187,45 +2109,160 @@
 - 采用“大型语言模型”这一通用学术</t>
         </is>
       </c>
-      <c r="O15" s="3" t="inlineStr">
+      <c r="O14" s="3" t="inlineStr">
         <is>
           <t>仇恨言论分析中的数据集标注如何受主观偏见影响，提示词引导的角色扮演LLM能否复刻这种偏见</t>
         </is>
       </c>
-      <c r="P15" s="3" t="inlineStr">
+      <c r="P14" s="3" t="inlineStr">
         <is>
           <t>figures/HateAnaBias.png</t>
         </is>
       </c>
-      <c r="Q15" s="3" t="inlineStr">
+      <c r="Q14" s="3" t="inlineStr">
         <is>
           <t>The rise of online platforms exacerbated the spread of hate speech, demanding scalable and effective detection. However, the accuracy of hate speech detection systems heavily relies on human-labeled data, which is inherently susceptible to biases. While previous work has examined the issue, the interplay between the characteristics of the annotator and those of the target of the hate are still unexplored. We fill this gap by leveraging an extensive dataset with rich socio-demographic information of both annotators and targets, uncovering how human biases manifest in relation to the target's attributes. Our analysis surfaces the presence of widespread biases, which we quantitatively describe and characterize based on their intensity and prevalence, revealing marked differences. Furthermore, we compare human biases with those exhibited by persona-based LLMs. Our findings indicate that while persona-based LLMs do exhibit biases, these differ significantly from those of human annotators. Overall, our work offers new and nuanced results on human biases in hate speech annotations, as well as fresh insights into the design of AI-driven hate speech detection systems.</t>
         </is>
       </c>
-      <c r="R15" s="3" t="inlineStr">
+      <c r="R14" s="3" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S15" s="3" t="inlineStr">
+      <c r="S14" s="3" t="inlineStr">
         <is>
           <t>[引用句]Serving as a foundational critique within the transition from static classification to dynamic social simulation, Giorgi et al. (2025) demonstrate that although human perception of hate speech is fundamentally shaped by the interplay between annotator and target demographics, current persona-based LLMs fail to faithfully emulate these emergent sociological biases, highlighting a critical gap in the development of realistic AI agents.
 [翻译] 作为从静态分类向动态社会仿真过渡过程中的一项基础性批判研究，Giorgi等人（2025）证明，尽管人类对仇恨言论的感知从根本上受标注者与目标人口统计特征交互作用的影响，但当前的基于角色的LLM无法忠实地模拟这些涌现的社会学偏差，突显了构建逼真AI智能体方面的一个关键差距。</t>
         </is>
       </c>
+      <c r="T14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U14" s="3" t="inlineStr"/>
+      <c r="V14" s="3" t="inlineStr">
+        <is>
+          <t>2026-01-15 20:03:34</t>
+        </is>
+      </c>
+      <c r="W14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="inlineStr"/>
+      <c r="Y14" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>10.1609/aaai.v39i13.33575</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>BotSim: LLM-Powered Malicious Social Botnet Simulation</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Boyu Qiao, Kun Li*, Wei Zhou, Shilong Li, Qianqian Lu, Songlin Hu</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>Malicious Bot Detection</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] To simulate and study the threat of LLM-powered malicious social botnets for improved detection.
+[翻译]
+模拟和研究由大语言模型驱动的恶意社交僵尸网络的威胁，以改进检测。</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] Proposes BotSim, an LLM-powered framework for simulating intelligent malicious botnets and generating realistic datasets for detection benchmarking.
+[翻译]
+提出了BotSim，一个利用大语言模型模拟智能恶意僵尸网络并生成用于检测基准测试的真实数据集的框架。</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] Proposes BotSim, an LLM-powered simulation framework that creates a virtual social network of intelligent agent bots and human users to model malicious botnet behavior and information dissemination patterns.
+[翻译]
+提出了BotSim，一个由大语言模型驱动的仿真框架，它创建一个由智能代理机器人和真实用户组成的虚拟社交网络，以模拟恶意僵尸网络的行为和信息传播模式。</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] BotSim-24, a highly human-like bot dataset, reveals that traditional bot detection methods underperform against advanced LLM-powered bots, underscoring the need for new detection strategies.
+[翻译]
+BotSim-24是一个高度类人的机器人数据集，它表明传统的机器人检测方法在面对先进的LLM驱动的机器人时表现不佳，凸显了对新检测策略的需求。</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] The simulation relies on LLM capabilities and lacks real-world deployment validation. [翻译] 整个模拟依赖LLM能力，缺乏真实世界部署验证。</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>https://ojs.aaai.org/index.php/AAAI/article/view/33575</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr"/>
+      <c r="M15" s="3" t="inlineStr">
+        <is>
+          <t>AAAI</t>
+        </is>
+      </c>
+      <c r="N15" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] 中文标题：BotSim：基于大语言模型的恶意社交僵尸网络仿真
+论文分类（供参考）：恶意机器人检测
+论文摘要（供参考）：
+X（原Twitter）和Reddit等社交媒体平台对全球信息交流至关重要。然而，大语言模型技术的进步催生了具有前所未有智能水平的社交媒体机器人。这些机器人能够娴熟地模拟用户画像、对话与互动行为，大规模传播虚假信息，对平台治理构成严峻挑战。为深入理解并应对此类</t>
+        </is>
+      </c>
+      <c r="O15" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] BotSim is like a digital petri dish for cultivating and studying intelligent malicious bots. [翻译] BotSim如同一个数字培养皿，用于培育和研究智能恶意机器人。</t>
+        </is>
+      </c>
+      <c r="P15" s="3" t="inlineStr"/>
+      <c r="Q15" s="3" t="inlineStr">
+        <is>
+          <t>Social media platforms like X(Twitter) and Reddit are vital to global communication. However, advancements in Large Language Model (LLM) technology give rise to social media bots with unprecedented intelligence. These bots adeptly simulate human profiles, conversations, and interactions, disseminating large amounts of false information and posing significant challenges to platform regulation. To better understand and counter these threats, we innovatively design BotSim, a malicious social botnet simulation powered by LLM. BotSim mimics the information dissemination patterns of real-world social networks, creating a virtual environment composed of intelligent agent bots and real human users. In the temporal simulation constructed by BotSim, these advanced agent bots autonomously engage in social interactions such as posting and commenting, effectively modeling scenarios of information flow and user interaction. Building on the BotSim framework, we construct a highly human-like, LLM-driven bot dataset called BotSim-24 and benchmark multiple bot detection strategies against it. The experimental results indicate that detection methods effective on traditional bot datasets perform worse on BotSim-24, highlighting the urgent need for new detection strategies to address the cybersecurity threats posed by these advanced bots.</t>
+        </is>
+      </c>
+      <c r="R15" s="3" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S15" s="3" t="inlineStr"/>
       <c r="T15" s="3" t="b">
         <v>1</v>
       </c>
       <c r="U15" s="3" t="inlineStr"/>
       <c r="V15" s="3" t="inlineStr">
         <is>
-          <t>2026-01-15 20:03:34</t>
+          <t>2026-01-22 22:11:57</t>
         </is>
       </c>
       <c r="W15" s="3" t="b">
         <v>0</v>
       </c>
       <c r="X15" s="3" t="inlineStr"/>
+      <c r="Y15" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
@@ -2336,6 +2373,9 @@
         <v>0</v>
       </c>
       <c r="X16" s="3" t="inlineStr"/>
+      <c r="Y16" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
@@ -2441,6 +2481,9 @@
         <v>0</v>
       </c>
       <c r="X17" s="3" t="inlineStr"/>
+      <c r="Y17" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
@@ -2551,6 +2594,9 @@
         <v>0</v>
       </c>
       <c r="X18" s="3" t="inlineStr"/>
+      <c r="Y18" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -2675,6 +2721,9 @@
         <v>0</v>
       </c>
       <c r="X19" s="3" t="inlineStr"/>
+      <c r="Y19" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
@@ -2793,6 +2842,9 @@
         <v>0</v>
       </c>
       <c r="X20" s="3" t="inlineStr"/>
+      <c r="Y20" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
@@ -2906,6 +2958,9 @@
         <v>0</v>
       </c>
       <c r="X21" s="3" t="inlineStr"/>
+      <c r="Y21" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
@@ -3012,6 +3067,9 @@
         <v>0</v>
       </c>
       <c r="X22" s="3" t="inlineStr"/>
+      <c r="Y22" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
@@ -3127,6 +3185,9 @@
         <v>0</v>
       </c>
       <c r="X23" s="3" t="inlineStr"/>
+      <c r="Y23" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
@@ -3247,74 +3308,417 @@
         <v>0</v>
       </c>
       <c r="X24" s="3" t="inlineStr"/>
+      <c r="Y24" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>10.1609/aaai.v39i25.34899</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>Temporal Triadic Closure: Finding Dense Substructures in Social Networks That Evolve over Time</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Tom Davot, Jessica Enright, Jayakrishnan Madathil, Kitty Meeks</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>Social Network Simulation</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>[AI generated] Introducing the concept of temporal c-closed graphs to model the evolving triadic closure property in real-world social networks.
+[翻译]
+引入时序c闭包图的概念，以建模现实世界社交网络中不断演化的三元闭包特性。</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>[AI generated] Introduces the concept of temporal c-closed graphs to model evolving social networks and provides efficient algorithms for enumerating dense substructures within them.
+[翻译]
+提出了时序c闭包图的概念来建模演化的社交网络，并为其稠密子结构的枚举提供了高效算法。</t>
+        </is>
+      </c>
+      <c r="H25" s="4" t="inlineStr">
+        <is>
+          <t>[AI generated] Introduces the concept of temporal c-closed graphs, where edges form if vertices share enough common neighbors within a short time window. Studies enumeration algorithms for maximal cliques and dense subgraphs in such slowly evolving temporal graphs.
+[翻译]
+提出了时序c-闭包图的概念，即若顶点在短时间内拥有足够多的共同邻居，则它们之间形成连接。研究了在此类缓慢演化的时序</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>[AI generated] Proposes temporal c-closed graphs and shows efficient enumeration of dense substructures in slowly evolving networks.
+[翻译]
+提出了时序c闭包图的概念，并证明了在缓慢演化的网络中能高效枚举稠密子结构。</t>
+        </is>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>[AI generated] The proposed temporal c-closure model and efficient algorithms rely on the assumption of slow network evolution, which may not hold for all real-world dynamic social networks.
+[翻译]
+所提出的时序c-闭包模型及高效算法依赖于网络缓慢演化的假设，这一假设可能不适用于所有现实世界的动态社交网络。</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr">
+        <is>
+          <t>https://ojs.aaai.org/index.php/AAAI/article/view/34899</t>
+        </is>
+      </c>
+      <c r="L25" s="4" t="inlineStr"/>
+      <c r="M25" s="4" t="inlineStr">
+        <is>
+          <t>AAAI</t>
+        </is>
+      </c>
+      <c r="N25" s="4" t="inlineStr">
+        <is>
+          <t>[AI generated] 中文标题：时序三元闭包：在随时间演化的社交网络中寻找稠密子结构</t>
+        </is>
+      </c>
+      <c r="O25" s="4" t="inlineStr">
+        <is>
+          <t>[AI generated] This method tracks evolving social clusters like watching shifting constellations in a night sky. [翻译]该方法追踪演化的社交集群，如同观测夜空中移动的星群。</t>
+        </is>
+      </c>
+      <c r="P25" s="4" t="inlineStr"/>
+      <c r="Q25" s="4" t="inlineStr">
+        <is>
+          <t>A graph G is c-closed if every two vertices with at least c common neighbors are adjacent to each other. This definition is an abstraction of the triadic closure property exhibited by many real-world social networks, namely, friends of friends tend to be friends themselves. Social networks, however, are often temporal rather than static---the connections  change over a period of time. And hence temporal graphs, rather than static graphs, are often better suited to model social networks. Motivated by this, we introduce a definition of temporal c-closed graphs, in which if two vertices u and v have at least c common neighbors during a short interval of time, then u and v are adjacent to each other around that time. Our pilot experiments show that several real-world temporal networks are c-closed for rather small values of c. We also study the computational problems of enumerating maximal cliques and other dense subgraphs in temporal c-closed  graphs. A clique in a temporal graph is a subgraph that lasts for a certain period of time, during which every possible edge in the subgraph becomes active often enough; other dense subgraphs are defined similarly. We bound the number of such maximal dense subgraphs  in a temporal c-closed graph that evolves slowly, and thus show that the corresponding enumeration problems admit efficient algorithms; by slow evolution, we mean that between consecutive time-steps, the local change in adjacencies remains small. Our work also adds to a growing body of literature on defining suitable structural parameters for temporal graphs that can be leveraged to design efficient algorithms.</t>
+        </is>
+      </c>
+      <c r="R25" s="4" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S25" s="4" t="inlineStr"/>
+      <c r="T25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U25" s="4" t="inlineStr"/>
+      <c r="V25" s="4" t="inlineStr">
+        <is>
+          <t>2026-01-23 20:10:53</t>
+        </is>
+      </c>
+      <c r="W25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X25" s="4" t="inlineStr"/>
+      <c r="Y25" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>10.1609/aaai.v39i25.34899</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Temporal Triadic Closure: Finding Dense Substructures in Social Networks That Evolve over Time</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>Tom Davot, Jessica Enright, Jayakrishnan Madathil, Kitty Meeks</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>Social Network Simulation</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] Introducing the concept of temporal c-closed graphs to model the evolving triadic closure property in real-world social networks.
+[翻译]
+引入时序c闭包图的概念，以建模现实世界社交网络中不断演化的三元闭包特性。</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] Introduces the concept of temporal c-closed graphs to model evolving social networks and provides efficient algorithms for enumerating dense substructures within them.
+[翻译]
+提出了时序c闭包图的概念来建模演化的社交网络，并为其稠密子结构的枚举提供了高效算法。</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] Introduces the concept of temporal c-closed graphs, where edges form if vertices share enough common neighbors within a short time window. Studies enumeration algorithms for maximal cliques and dense subgraphs in such slowly evolving temporal graphs.
+[翻译]
+提出了时序c-闭包图的概念，即若顶点在短时间内拥有足够多的共同邻居，则它们之间形成连接。研究了在此类缓慢演化的时序</t>
+        </is>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] Introduces temporal c-closed graphs and shows efficient enumeration of dense substructures in slowly evolving temporal networks.
+[翻译]
+提出了时序c-闭图概念，并证明了在缓慢演化的时序网络中能高效枚举稠密子结构。</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] The proposed temporal c-closure model and efficient algorithms rely on the assumption of slow network evolution, which may not hold for all real-world dynamic social networks.
+[翻译]
+所提出的时序c-闭包模型及高效算法依赖于网络缓慢演化的假设，这一假设可能不适用于所有现实世界的动态社交网络。</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr">
+        <is>
+          <t>https://ojs.aaai.org/index.php/AAAI/article/view/34899</t>
+        </is>
+      </c>
+      <c r="L26" s="3" t="inlineStr"/>
+      <c r="M26" s="3" t="inlineStr">
+        <is>
+          <t>AAAI</t>
+        </is>
+      </c>
+      <c r="N26" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] 中文标题：时序三元闭包：在随时间演化的社交网络中寻找稠密子结构</t>
+        </is>
+      </c>
+      <c r="O26" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] This method tracks evolving social clusters like watching shifting constellations in a night sky. [翻译]该方法追踪演化的社交集群，如同观测夜空中移动的星群。</t>
+        </is>
+      </c>
+      <c r="P26" s="3" t="inlineStr"/>
+      <c r="Q26" s="3" t="inlineStr">
+        <is>
+          <t>A graph G is c-closed if every two vertices with at least c common neighbors are adjacent to each other. This definition is an abstraction of the triadic closure property exhibited by many real-world social networks, namely, friends of friends tend to be friends themselves. Social networks, however, are often temporal rather than static---the connections  change over a period of time. And hence temporal graphs, rather than static graphs, are often better suited to model social networks. Motivated by this, we introduce a definition of temporal c-closed graphs, in which if two vertices u and v have at least c common neighbors during a short interval of time, then u and v are adjacent to each other around that time. Our pilot experiments show that several real-world temporal networks are c-closed for rather small values of c. We also study the computational problems of enumerating maximal cliques and other dense subgraphs in temporal c-closed  graphs. A clique in a temporal graph is a subgraph that lasts for a certain period of time, during which every possible edge in the subgraph becomes active often enough; other dense subgraphs are defined similarly. We bound the number of such maximal dense subgraphs  in a temporal c-closed graph that evolves slowly, and thus show that the corresponding enumeration problems admit efficient algorithms; by slow evolution, we mean that between consecutive time-steps, the local change in adjacencies remains small. Our work also adds to a growing body of literature on defining suitable structural parameters for temporal graphs that can be leveraged to design efficient algorithms.</t>
+        </is>
+      </c>
+      <c r="R26" s="3" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S26" s="3" t="inlineStr"/>
+      <c r="T26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U26" s="3" t="inlineStr"/>
+      <c r="V26" s="3" t="inlineStr">
+        <is>
+          <t>2026-01-23 19:15:29</t>
+        </is>
+      </c>
+      <c r="W26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3" t="inlineStr"/>
+      <c r="Y26" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>10.1609/icwsm.v19i1.35842</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>LIN: Latent Influence Network for Discovering Hidden Directed Influence Links on Social Media</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Chenhao Gu, Zainab Razia Zaidi, Ling Luo, Shanika Karunasekera</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>2025-06-07</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>Social Network Simulation</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] To discover hidden and complex pathways of influence beyond apparent user interactions on social media.
+[翻译]
+旨在发现社交媒体上超越显性用户交互的、隐藏且复杂的影响路径。</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] Proposes a Latent Influence Network (LIN) within the LIDET framework to discover hidden directed influence links from user behavior, significantly outperforming traditional models.
+[翻译]
+提出了潜在影响网络（LIN）及LIDET框架，通过用户行为发现隐藏的有向影响链路，性能显著优于传统模型。</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] Proposes the Latent Influence Network (LIN) within the LIDET framework, which identifies optimal network configurations based on user behavior labels to reveal hidden influence pathways.
+[翻译]
+提出了潜在影响网络（LIN）及其检测框架LIDET，该框架基于用户行为标签识别最优网络配置，以揭示隐藏的影响路径。</t>
+        </is>
+      </c>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] LIN significantly outperforms traditional models in revealing hidden influence pathways, achieving 99% accuracy in a COVID-19 case study.
+[翻译]
+LIN在揭示隐藏影响路径方面显著优于传统模型，在COVID-19案例研究中实现了99%的分类准确率。</t>
+        </is>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] The framework's performance heavily depends on the quality and granularity of user behavior labels, which may not always be available or reliable.
+[翻译]
+该框架的性能严重依赖于用户行为标签的质量和粒度，而这些标签可能并非总是可用或可靠。</t>
+        </is>
+      </c>
+      <c r="K27" s="3" t="inlineStr">
+        <is>
+          <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35842</t>
+        </is>
+      </c>
+      <c r="L27" s="3" t="inlineStr"/>
+      <c r="M27" s="3" t="inlineStr">
+        <is>
+          <t>ICWSM</t>
+        </is>
+      </c>
+      <c r="N27" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] 中文标题：LIN：社交媒体潜在影响力网络——用于发现隐藏有向影响力链接
+（注：该翻译在保持学术严谨性的同时，兼顾中文表达习惯，将原标题的核心概念“Latent Influence Network”译为“潜在影响力网络”，并补充说明其功能“用于发现隐藏有向影响力链接”，使标题含义更完整清晰，符合中文论文标题常见表述方式。）</t>
+        </is>
+      </c>
+      <c r="O27" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] LIN acts like a social X-ray, revealing hidden influence pathways by analyzing user behavior patterns.  
+[翻译]  
+LIN如同社交X光，通过分析用户行为模式揭示隐藏的影响力路径。</t>
+        </is>
+      </c>
+      <c r="P27" s="3" t="inlineStr"/>
+      <c r="Q27" s="3" t="inlineStr">
+        <is>
+          <t>In the current social media landscape, the study of influence propagation and consensus formation has gained prominence. While user interactions like retweeting are apparent, the underlying pathways of influence often remain hidden and complex. This study proposes a novel network called Latent Influence Network (LIN), which advances the analysis of influence on social media. LIN's architecture and the process of parameter selection are meticulously discussed within the comprehensive Latent Influence Detection Framework (LIDET). Based on the user's behavior label, LIN identifies the optimal network configuration, revealing more accurate influence patterns. We applied the LIDET framework to four diverse datasets, each demonstrating substantial improvements in influence pattern recognition over traditional network models. Specifically, in a case study on a COVID-19 dataset, LIN achieved a classification accuracy of 99%, significantly outperforming conventional methods. These findings underscore the utility of LIN in capturing the dynamics of influence and enhancing our understanding of opinion formation on social media.</t>
+        </is>
+      </c>
+      <c r="R27" s="3" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S27" s="3" t="inlineStr">
+        <is>
+          <t>【之前的精读论文】</t>
+        </is>
+      </c>
+      <c r="T27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U27" s="3" t="inlineStr"/>
+      <c r="V27" s="3" t="inlineStr">
+        <is>
+          <t>2026-01-22 22:11:57</t>
+        </is>
+      </c>
+      <c r="W27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3" t="inlineStr"/>
+      <c r="Y27" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>10.1017/pan.2023.2</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>Out of one, many: Using language models to simulate human samples</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>Lisa P. Argyle,Ethan C. Busby,Nancy Fulda2, Joshua R. Gubler,Christopher Rytting and David Wingate</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>2023-07</t>
         </is>
       </c>
-      <c r="E25" s="3" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>Social Simulation</t>
         </is>
       </c>
-      <c r="F25" s="3" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>LLM's well-documented propensity to replicate societal biases is often viewed as a liability, but this paper reconsiders it as a potential asset, suggesting these biases reflect the complex, fine-grained attitudinal distributions embedded within human subpopulations.
 [翻译]模型复制社会偏见的倾向通常被视为缺陷，但本文将其重新视为一种潜在优势，认为这些偏见反映了内嵌于人类亚群体中复杂、细粒度的态度分布。</t>
         </is>
       </c>
-      <c r="G25" s="3" t="inlineStr">
+      <c r="G28" s="3" t="inlineStr">
         <is>
           <t>(i) proposing the novel concept of “algorithmic fidelity” and its four criteria, establishing a framework to quantify how well LLMs simulate human populations; (ii) introducing “silicon sampling,” a method that conditions models on real demographic backstories to generate representative virtual samples
 [翻译] (i) 提出“算法保真度”新概念及其四个标准，建立了量化LLM模拟人类群体效果的框架；(ii) 引入“硅采样”方法，基于真实人口背景故事对模型进行条件化，以生成有代表性的虚拟样本</t>
         </is>
       </c>
-      <c r="H25" s="3" t="inlineStr">
+      <c r="H28" s="3" t="inlineStr">
         <is>
           <t>(i) extracting sociodemographic profiles from large-scale human surveys; (ii) constructing first-person narrative backstories as conditioning prompts; (iii) feeding these prompts into GPT-3 to generate responses (“silicon samples”) to specific questions; (iv) statistically comparing the generated data with original human data to validate algorithmic fidelity across various metrics.
 [翻译] (i) 从大规模人类调查中提取社会人口学特征；(ii) 构建第一人称叙事背景故事作为条件化提示；(iii) 将这些提示输入GPT-3，以生成针对特定问题的回答（“硅样本”）；(iv) 从多维度统计上比较生成数据与原始人类数据，以验证算法保真度。[通俗核心]方法很简单，使用提示词模版填入符合人口统计特征的受访者特征，让LLM输出指定回答，与人类样本做对齐</t>
         </is>
       </c>
-      <c r="I25" s="3" t="inlineStr">
+      <c r="I28" s="3" t="inlineStr">
         <is>
           <t>The study demonstrates that GPT-3 exhibits high algorithmic fidelity: human evaluators struggle to distinguish its outputs from human text, and its generated data closely replicates not only aggregate opinion distributions (e.g., vote shares) but also the complex correlational structures between demographics, attitudes, and behaviors found in real human data.
 [翻译] 研究表明GPT-3表现出高算法保真度：人类评估者难以区分其输出与人类文本，其生成的数据不仅紧密复现了聚合意见分布（如投票份额），还复现了真实人类数据中人口特征、态度和行为之间复杂的相关性结构。</t>
         </is>
       </c>
-      <c r="J25" s="3" t="inlineStr">
+      <c r="J28" s="3" t="inlineStr">
         <is>
           <t>提示词中显示标明角色身份，会让LLM过度重视，有走捷径之嫌</t>
         </is>
       </c>
-      <c r="K25" s="3" t="inlineStr">
+      <c r="K28" s="3" t="inlineStr">
         <is>
           <t>https://www.cambridge.org/core/journals/political-analysis/article/out-of-one-many-using-language-models-to-simulate-human-samples/035D7C8A55B237942FB6DBAD7CAA4E49</t>
         </is>
       </c>
-      <c r="L25" s="3" t="inlineStr"/>
-      <c r="M25" s="3" t="inlineStr">
+      <c r="L28" s="3" t="inlineStr"/>
+      <c r="M28" s="3" t="inlineStr">
         <is>
           <t>Political Analysis</t>
         </is>
       </c>
-      <c r="N25" s="3" t="inlineStr">
+      <c r="N28" s="3" t="inlineStr">
         <is>
           <t>[AI generated] **中文标题：** 一源多相：利用语言模型模拟人类样本
 **翻译说明：**
@@ -3322,112 +3726,115 @@
 2.  **主标题</t>
         </is>
       </c>
-      <c r="O25" s="3" t="inlineStr">
+      <c r="O28" s="3" t="inlineStr">
         <is>
           <t>让LLM模仿人类进行社会学实验，通过与真实情况对齐来判断LLM相关预测能力</t>
         </is>
       </c>
-      <c r="P25" s="3" t="inlineStr">
+      <c r="P28" s="3" t="inlineStr">
         <is>
           <t>figures/Out of One, Many.png;figures/Out of One, Many2.png</t>
         </is>
       </c>
-      <c r="Q25" s="3" t="inlineStr">
+      <c r="Q28" s="3" t="inlineStr">
         <is>
           <t>We propose and explore the possibility that language models can be studied as effective proxies for specific human subpopulations in social science research. Practical and research applications of artificial intelligence tools have sometimes been limited by problematic biases (such as racism or sexism), which are often treated as uniform properties of the models. We show that the “algorithmic bias” within one such tool—the GPT-3 language model—is instead both fine-grained and demographically correlated, meaning that proper conditioning will cause it to accurately emulate response distributions from a wide variety of human subgroups. We term this property algorithmic fidelity and explore its extent in GPT-3. We create “silicon samples” by conditioning the model on thousands of sociodemographic backstories from real human participants in multiple large surveys conducted in the United States. We then compare the silicon and human samples to demonstrate that the information contained in GPT-3 goes far beyond surface similarity. It is nuanced, multifaceted, and reflects the complex interplay between ideas, attitudes, and sociocultural context that characterize human attitudes. We suggest that language models with sufficient algorithmic fidelity thus constitute a novel and powerful tool to advance understanding of humans and society across a variety of disciplines.</t>
         </is>
       </c>
-      <c r="R25" s="3" t="inlineStr">
+      <c r="R28" s="3" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S25" s="3" t="inlineStr">
+      <c r="S28" s="3" t="inlineStr">
         <is>
           <t>[引用文]Argyle et al. (2023) represent a pivotal shift from viewing LLMs as mere pattern recognition tools to employing them as tools for social simulation. Their work provides a paradigmatic methodology—centered on the concept of “algorithmic fidelity”—for experimentally testing whether and how the statistical predictions of an LLM align with nuanced human societal patterns. By conditioning GPT-3 on detailed demographic backstories within prompts (“silicon sampling”), they demonstrated that the model itself could generate attitudes and internal correlations that closely mirror those of real human subgroups. This marks a transition from goal-oriented text generation to the study of simulated social emergence.
 [翻译]
 Argyle等人(2023)的研究标志着一个关键转变：从将LLM视为单纯的模式识别工具，转向将其用作社会仿真的工具。他们的工作提供了一种范式方法——围绕“算法保真度”概念——来实验性地测试LLM的统计预测是否及如何与人类社会模式对齐。通过在提示词中为GPT-3施加详细的人口背景故事条件（“硅采样”），他们证明了该模型能够涌现出与真实人类亚群体高度吻合的态度及内部关联。标志着从目标导向的文本生成向模拟社会涌现研究的过渡</t>
         </is>
       </c>
-      <c r="T25" s="3" t="b">
+      <c r="T28" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U25" s="3" t="inlineStr"/>
-      <c r="V25" s="3" t="inlineStr">
+      <c r="U28" s="3" t="inlineStr"/>
+      <c r="V28" s="3" t="inlineStr">
         <is>
           <t>2026-01-15 20:03:24</t>
         </is>
       </c>
-      <c r="W25" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X25" s="3" t="inlineStr"/>
+      <c r="W28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3" t="inlineStr"/>
+      <c r="Y28" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>10.18653/v1/2024.findings-emnlp.153</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>Are Large Language Models (LLMs) Good Social Predictors?</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>Kaiqi Yang*,Hang Li*,Hongzhi Wen,Tai-Quan Peng,Jiliang Tang,Hui Liu</t>
         </is>
       </c>
-      <c r="D26" s="3" t="inlineStr">
+      <c r="D29" s="3" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E26" s="3" t="inlineStr">
+      <c r="E29" s="3" t="inlineStr">
         <is>
           <t>Social Simulation</t>
         </is>
       </c>
-      <c r="F26" s="3" t="inlineStr">
+      <c r="F29" s="3" t="inlineStr">
         <is>
           <t>论文Out of one, many: Using language models to simulate human samples可能利用了捷径特性，且能力难以从宏观细化到个体</t>
         </is>
       </c>
-      <c r="G26" s="3" t="inlineStr">
+      <c r="G29" s="3" t="inlineStr">
         <is>
           <t>[AI generated] Proposes a novel social prediction benchmark (Soc-PRF) categorizing features by mutability to rigorously evaluate LLMs and reveals their reliance on input shortcuts.
 [翻译]：提出了一个按特征可变性分类的新颖社会预测基准（Soc-PRF），以严格评估LLMs，并揭示了其对输入捷径的依赖。</t>
         </is>
       </c>
-      <c r="H26" s="3" t="inlineStr">
+      <c r="H29" s="3" t="inlineStr">
         <is>
           <t>First, a replication and ablation study on the ANES voting dataset quantifies the performance drop when removing highly correlated “shortcut” inputs (e.g., party ID). Second, a new benchmark is constructed using Gallup World Poll data. Features are categorized by mutability (low: demographics; high: attitudes/behaviors). Three prediction settings are defined—low-to-high, high-to-low, and high-to-high—simulating realistic data collection scenarios. Multiple LLMs are evaluated under zero-shot prompting, with AUC as the primary metric.
 [翻译]：首先，在ANES投票数据集上进行复制和消融研究，量化了移除高度相关的“捷径”输入（如党派身份）后的性能下降。其次，使用盖洛普世界民意调查数据构建了一个新基准。特征按可变性分类（低：人口统计学特征；高：态度/行为）。定义了三种预测设定——低推高、高推低和高推高——以模拟现实的数据收集场景。在零样本提示下评估了多种LLMs，以AUC为主要指标。</t>
         </is>
       </c>
-      <c r="I26" s="3" t="inlineStr">
+      <c r="I29" s="3" t="inlineStr">
         <is>
           <t>The high performance in prior voting prediction vanishes when shortcuts are removed, with accuracy dropping to near-random levels (e.g., ~61% for GPT-3.5). In the stringent Soc-PRF settings devoid of shortcuts, all tested LLMs (including GPT-4) perform no better than random guessing (AUC ~50). [翻译]： 先前投票预测中的高性能消失，准确率下降至接近随机水平（例如，GPT-3.5约为61%）。在排除捷径的严格Soc-PRF设定中，所有测试的LLMs（包括GPT-4）的表现均不优于随机猜测（AUC ~50）。</t>
         </is>
       </c>
-      <c r="J26" s="3" t="inlineStr">
+      <c r="J29" s="3" t="inlineStr">
         <is>
           <t>[AI generated] The promising performance of LLMs in social prediction heavily relies on unrealistic shortcut features, and their ability to generalize to real-world scenarios with ordinary inputs remains questionable. [翻译]：LLMs在社会预测中的优异表现严重依赖不现实的捷径特征，其使用普通输入泛化到真实场景的能力存疑。</t>
         </is>
       </c>
-      <c r="K26" s="3" t="inlineStr">
+      <c r="K29" s="3" t="inlineStr">
         <is>
           <t>https://aclanthology.org/2024.findings-emnlp.153</t>
         </is>
       </c>
-      <c r="L26" s="3" t="inlineStr"/>
-      <c r="M26" s="3" t="inlineStr">
+      <c r="L29" s="3" t="inlineStr"/>
+      <c r="M29" s="3" t="inlineStr">
         <is>
           <t>EMNLP Findings</t>
         </is>
       </c>
-      <c r="N26" s="3" t="inlineStr">
+      <c r="N29" s="3" t="inlineStr">
         <is>
           <t>[AI generated] **中文标题：** 大语言模型是优秀的社会预测器吗？
 **翻译说明：**
@@ -3436,46 +3843,161 @@
 3.  **简洁性：** 标题简洁明了，直接点明论文的核心</t>
         </is>
       </c>
-      <c r="O26" s="3" t="inlineStr">
+      <c r="O29" s="3" t="inlineStr">
         <is>
           <t>消融了最能影响预测结果的“意识形态自我定位”和“党派认同”，发现预测能力接近于随机</t>
         </is>
       </c>
-      <c r="P26" s="3" t="inlineStr">
+      <c r="P29" s="3" t="inlineStr">
         <is>
           <t>figures/anti-Out of One, Many.png</t>
         </is>
       </c>
-      <c r="Q26" s="3" t="inlineStr">
+      <c r="Q29" s="3" t="inlineStr">
         <is>
           <t>With the recent advancement of Large Language Models (LLMs), efforts have been made to leverage LLMs in crucial social science study methods, including predicting human features of social life such as presidential voting. Existing works suggest that LLMs are capable of generating human-like responses. Nevertheless, it is unclear how well LLMs work and where the plausible predictions derive from. This paper critically examines the performance of LLMs as social predictors, pointing out the source of correct predictions and limitations. Based on the notion of mutability that classifies social features, we design three realistic settings and a novel social prediction task, where the LLMs make predictions with input features of the same mutability and accessibility with the response feature. We find that the promising performance achieved by previous studies is because of input shortcut features to the response, which are hard to capture in reality; the performance degrades dramatically to near-random after removing the shortcuts. With the comprehensive investigations on various LLMs, we reveal that LLMs struggle to work as expected on social prediction when given ordinarily available input features without shortcuts. We further investigate possible reasons for this phenomenon and suggest potential ways to enhance LLMs for social prediction.</t>
         </is>
       </c>
-      <c r="R26" s="3" t="inlineStr">
+      <c r="R29" s="3" t="inlineStr">
         <is>
           <t>anonymous</t>
         </is>
       </c>
-      <c r="S26" s="3" t="inlineStr">
+      <c r="S29" s="3" t="inlineStr">
         <is>
           <t>[引用文]As the field evolves from pattern recognition towards social simulation and emergent understanding, a critical reassessment of our tools is imperative. Yang et al. (2024) provide a pivotal corrective in this transition. Their work challenges the optimistic narrative that LLMs can serve as accurate social predictors. They demonstrate that previously reported successes in tasks like vote prediction critically depended on "shortcut features" (e.g., using party identification to predict vote choice) and, by introducing a novel shortcut-free benchmark (Soc-PRF), reveal a significant gap. In settings devoid of such shortcuts, even state-of-the-art LLMs perform at random levels. This finding underscores a fundamental limitation: while current LLMs are excellent pattern recognizers of surface correlations, they lack the deeper causal or contextual reasoning necessary for genuine social simulation and the emergence of robust socio-behavioral understanding. Their research suggests that achieving true social fidelity requires moving beyond exploiting statistical artifacts in data.
 [翻译]
 随着该领域从模式识别向社会仿真与涌现性理解演进，对我们的工具进行批判性重估势在必行。Yang等人（2024）在这一转变中提供了一个关键修正。他们的工作挑战了“LLMs能作为准确社会预测器”的乐观论述。他们证明，先前在投票预测等任务中报告的成功，关键依赖于“捷径特征”（例如，用党派身份预测投票选择），并通过引入一个新颖的、无捷径的基准（Soc-PRF），揭示了一个显著的差距。在缺少此类捷径的设定中，即使是最先进的LLMs表现也处于随机水平。这一发现强调了一个根本性局限：当前的LLMs虽然是优秀的表面相关性模式识别器，但缺乏真正的社会仿真以及涌现出稳健社会行为理解所必需的、更深层的因果或语境推理能力。他们的研究表明，要实现真正的社会拟真度，需要超越对数据中统计假象的利用。</t>
         </is>
       </c>
-      <c r="T26" s="3" t="b">
+      <c r="T29" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U26" s="3" t="inlineStr"/>
-      <c r="V26" s="3" t="inlineStr">
+      <c r="U29" s="3" t="inlineStr"/>
+      <c r="V29" s="3" t="inlineStr">
         <is>
           <t>2026-01-15 20:03:24</t>
         </is>
       </c>
-      <c r="W26" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3" t="inlineStr"/>
+      <c r="W29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3" t="inlineStr"/>
+      <c r="Y29" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>10.1609/icwsm.v19i1.35826</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Understanding Online Polarization Through Human-Agent Interaction in a Synthetic LLM-Based Social Network</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>Tim Donkers, Jürgen Ziegler</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>Social Simulation;Macrosocial Phenomena Analysis</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] Investigating how polarized online environments influence individual perceptions and behaviors through controlled human-agent interaction.
+[翻译]
+通过受控的人机交互，研究极化在线环境如何影响个体感知与行为。</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] Proposes a novel human-agent interaction framework within a synthetic LLM-based social network to experimentally study polarization dynamics.
+[翻译]
+提出了一种在基于LLM的合成社交网络中进行人机交互的新颖框架，用于实验性地研究极化动态。</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] A novel experimental framework that enables human participants to interact with LLM-based artificial agents within a controlled, synthetic social network simulation.
+[翻译]
+一种新颖的实验框架，使人类参与者能够在受控的合成社交网络模拟中与基于大语言模型的人工智能体进行互动。</t>
+        </is>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] This study provides causal evidence that polarized online environments increase emotionality and group identity while reducing uncertainty, using a novel LLM-based social simulation.
+[翻译]
+本研究利用基于大语言模型的社交模拟，提供了因果证据，表明极化的在线环境会增加情绪性和群体认同，同时减少不确定性。</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] The study's reliance on a synthetic, LLM-based simulation may limit the generalizability of its findings to real-world social media dynamics.
+[翻译]
+该研究依赖基于LLM的合成模拟，其发现推广到真实世界社交媒体动态的普适性可能受限。</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr">
+        <is>
+          <t>https://ojs.aaai.org/index.php/ICWSM/article/view/35826</t>
+        </is>
+      </c>
+      <c r="L30" s="3" t="inlineStr"/>
+      <c r="M30" s="3" t="inlineStr">
+        <is>
+          <t>AAAI</t>
+        </is>
+      </c>
+      <c r="N30" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] 中文标题：基于合成LLM社交网络中的人机交互理解在线极化现象
+（注：该翻译准确传达了原标题的学术内涵，其中“Polarization”译为“极化现象”以符合社会科学领域术语习惯，“Synthetic LLM-Based Social Network”采用“基于合成LLM的社交网络”的译法，既保持技术准确性又符合中文表达规范，整体结构符合国内学术论文标题的简洁性要求。）</t>
+        </is>
+      </c>
+      <c r="O30" s="3" t="inlineStr">
+        <is>
+          <t>[AI generated] This study uses a digital petri dish of AI agents to observe how online echo chambers amplify human polarization. [翻译] 这项研究利用AI智能体构成的数字培养皿，观察网络回音室如何放大人类观点的极化。</t>
+        </is>
+      </c>
+      <c r="P30" s="3" t="inlineStr"/>
+      <c r="Q30" s="3" t="inlineStr">
+        <is>
+          <t>The rise of social media has fundamentally transformed how people engage in public discourse and form opinions. While these platforms offer unprecedented opportunities for democratic engagement, they have been implicated in increasing social polarization and the formation of ideological echo chambers. Previous research has primarily relied on observational studies of social media data or theoretical modeling approaches, leaving a significant gap in our understanding of how individuals respond to and are influenced by polarized online environments. Here we present a novel experimental framework for investigating polarization dynamics that allows human users to interact with LLM-based artificial agents in a controlled social network simulation. Through a user study with 122 participants, we demonstrate that this approach can successfully reproduce key characteristics of polarized online discourse while enabling precise manipulation of environmental factors. Our results provide empirical validation of theoretical predictions about online polarization, showing that polarized environments significantly increase perceived emotionality and group identity salience while reducing expressed uncertainty. These findings extend previous observational and theoretical work by providing causal evidence for how specific features of online environments influence user perceptions and behaviors. More broadly, this research introduces a powerful new methodology for studying social media dynamics, offering researchers unprecedented control over experimental conditions while maintaining ecological validity.</t>
+        </is>
+      </c>
+      <c r="R30" s="3" t="inlineStr">
+        <is>
+          <t>anonymous</t>
+        </is>
+      </c>
+      <c r="S30" s="3" t="inlineStr"/>
+      <c r="T30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U30" s="3" t="inlineStr"/>
+      <c r="V30" s="3" t="inlineStr">
+        <is>
+          <t>2026-01-22 22:11:57</t>
+        </is>
+      </c>
+      <c r="W30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3" t="inlineStr"/>
+      <c r="Y30" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1" password="C693"/>

--- a/paper_database.xlsx
+++ b/paper_database.xlsx
@@ -1381,62 +1381,16 @@
 超越了传统的监督分类器，Ahnert等人 (2025) 通过提出 “时间适配器” 展示了向社会仿真范式的转变。他们不再训练模型去显式地识别情感模式，而是通过自监督学习训练轻量级的LoRA模块作为学习元件，将冻结的大语言模型与源自纵向社交媒体数据的特定时间及语言语境相对齐。使模型获得了预测特定时间内公众情感的能力。他们的方法证实，通过时间对齐而非标签监督，即可实现对民意动态的可扩展且准确的追踪。</t>
   </si>
   <si>
-    <t>10.1609/aaai.v39i25.34899</t>
-  </si>
-  <si>
-    <t>Temporal Triadic Closure: Finding Dense Substructures in Social Networks That Evolve over Time</t>
-  </si>
-  <si>
-    <t>Tom Davot, Jessica Enright, Jayakrishnan Madathil, Kitty Meeks</t>
+    <t>10.1609/icwsm.v19i1.35842</t>
+  </si>
+  <si>
+    <t>LIN: Latent Influence Network for Discovering Hidden Directed Influence Links on Social Media</t>
+  </si>
+  <si>
+    <t>Chenhao Gu, Zainab Razia Zaidi, Ling Luo, Shanika Karunasekera</t>
   </si>
   <si>
     <t>Social Network Simulation</t>
-  </si>
-  <si>
-    <t>[AI generated] Introducing the concept of temporal c-closed graphs to model the evolving triadic closure property in real-world social networks.
-[翻译]
-引入时序c闭包图的概念，以建模现实世界社交网络中不断演化的三元闭包特性。</t>
-  </si>
-  <si>
-    <t>[AI generated] Introduces the concept of temporal c-closed graphs to model evolving social networks and provides efficient algorithms for enumerating dense substructures within them.
-[翻译]
-提出了时序c闭包图的概念来建模演化的社交网络，并为其稠密子结构的枚举提供了高效算法。</t>
-  </si>
-  <si>
-    <t>[AI generated] Introduces the concept of temporal c-closed graphs, where edges form if vertices share enough common neighbors within a short time window. Studies enumeration algorithms for maximal cliques and dense subgraphs in such slowly evolving temporal graphs.
-[翻译]
-提出了时序c-闭包图的概念，即若顶点在短时间内拥有足够多的共同邻居，则它们之间形成连接。研究了在此类缓慢演化的时序</t>
-  </si>
-  <si>
-    <t>[AI generated] Introduces temporal c-closed graphs and shows efficient enumeration of dense substructures in slowly evolving temporal networks.
-[翻译]
-提出了时序c-闭图概念，并证明了在缓慢演化的时序网络中能高效枚举稠密子结构。</t>
-  </si>
-  <si>
-    <t>[AI generated] The proposed temporal c-closure model and efficient algorithms rely on the assumption of slow network evolution, which may not hold for all real-world dynamic social networks.
-[翻译]
-所提出的时序c-闭包模型及高效算法依赖于网络缓慢演化的假设，这一假设可能不适用于所有现实世界的动态社交网络。</t>
-  </si>
-  <si>
-    <t>https://ojs.aaai.org/index.php/AAAI/article/view/34899</t>
-  </si>
-  <si>
-    <t>[AI generated] 中文标题：时序三元闭包：在随时间演化的社交网络中寻找稠密子结构</t>
-  </si>
-  <si>
-    <t>[AI generated] This method tracks evolving social clusters like watching shifting constellations in a night sky. [翻译]该方法追踪演化的社交集群，如同观测夜空中移动的星群。</t>
-  </si>
-  <si>
-    <t>A graph G is c-closed if every two vertices with at least c common neighbors are adjacent to each other. This definition is an abstraction of the triadic closure property exhibited by many real-world social networks, namely, friends of friends tend to be friends themselves. Social networks, however, are often temporal rather than static---the connections  change over a period of time. And hence temporal graphs, rather than static graphs, are often better suited to model social networks. Motivated by this, we introduce a definition of temporal c-closed graphs, in which if two vertices u and v have at least c common neighbors during a short interval of time, then u and v are adjacent to each other around that time. Our pilot experiments show that several real-world temporal networks are c-closed for rather small values of c. We also study the computational problems of enumerating maximal cliques and other dense subgraphs in temporal c-closed  graphs. A clique in a temporal graph is a subgraph that lasts for a certain period of time, during which every possible edge in the subgraph becomes active often enough; other dense subgraphs are defined similarly. We bound the number of such maximal dense subgraphs  in a temporal c-closed graph that evolves slowly, and thus show that the corresponding enumeration problems admit efficient algorithms; by slow evolution, we mean that between consecutive time-steps, the local change in adjacencies remains small. Our work also adds to a growing body of literature on defining suitable structural parameters for temporal graphs that can be leveraged to design efficient algorithms.</t>
-  </si>
-  <si>
-    <t>10.1609/icwsm.v19i1.35842</t>
-  </si>
-  <si>
-    <t>LIN: Latent Influence Network for Discovering Hidden Directed Influence Links on Social Media</t>
-  </si>
-  <si>
-    <t>Chenhao Gu, Zainab Razia Zaidi, Ling Luo, Shanika Karunasekera</t>
   </si>
   <si>
     <t>[AI generated] To discover hidden and complex pathways of influence beyond apparent user interactions on social media.
@@ -1480,6 +1434,52 @@
   </si>
   <si>
     <t>【之前的精读论文】</t>
+  </si>
+  <si>
+    <t>10.1609/aaai.v39i25.34899</t>
+  </si>
+  <si>
+    <t>Temporal Triadic Closure: Finding Dense Substructures in Social Networks That Evolve over Time</t>
+  </si>
+  <si>
+    <t>Tom Davot, Jessica Enright, Jayakrishnan Madathil, Kitty Meeks</t>
+  </si>
+  <si>
+    <t>[AI generated] Introducing the concept of temporal c-closed graphs to model the evolving triadic closure property in real-world social networks.
+[翻译]
+引入时序c闭包图的概念，以建模现实世界社交网络中不断演化的三元闭包特性。</t>
+  </si>
+  <si>
+    <t>[AI generated] Introduces the concept of temporal c-closed graphs to model evolving social networks and provides efficient algorithms for enumerating dense substructures within them.
+[翻译]
+提出了时序c闭包图的概念来建模演化的社交网络，并为其稠密子结构的枚举提供了高效算法。</t>
+  </si>
+  <si>
+    <t>[AI generated] Introduces the concept of temporal c-closed graphs, where edges form if vertices share enough common neighbors within a short time window. Studies enumeration algorithms for maximal cliques and dense subgraphs in such slowly evolving temporal graphs.
+[翻译]
+提出了时序c-闭包图的概念，即若顶点在短时间内拥有足够多的共同邻居，则它们之间形成连接。研究了在此类缓慢演化的时序</t>
+  </si>
+  <si>
+    <t>[AI generated] Introduces temporal c-closed graphs and shows efficient enumeration of dense substructures in slowly evolving temporal networks.
+[翻译]
+提出了时序c-闭图概念，并证明了在缓慢演化的时序网络中能高效枚举稠密子结构。</t>
+  </si>
+  <si>
+    <t>[AI generated] The proposed temporal c-closure model and efficient algorithms rely on the assumption of slow network evolution, which may not hold for all real-world dynamic social networks.
+[翻译]
+所提出的时序c-闭包模型及高效算法依赖于网络缓慢演化的假设，这一假设可能不适用于所有现实世界的动态社交网络。</t>
+  </si>
+  <si>
+    <t>https://ojs.aaai.org/index.php/AAAI/article/view/34899</t>
+  </si>
+  <si>
+    <t>[AI generated] 中文标题：时序三元闭包：在随时间演化的社交网络中寻找稠密子结构</t>
+  </si>
+  <si>
+    <t>[AI generated] This method tracks evolving social clusters like watching shifting constellations in a night sky. [翻译]该方法追踪演化的社交集群，如同观测夜空中移动的星群。</t>
+  </si>
+  <si>
+    <t>A graph G is c-closed if every two vertices with at least c common neighbors are adjacent to each other. This definition is an abstraction of the triadic closure property exhibited by many real-world social networks, namely, friends of friends tend to be friends themselves. Social networks, however, are often temporal rather than static---the connections  change over a period of time. And hence temporal graphs, rather than static graphs, are often better suited to model social networks. Motivated by this, we introduce a definition of temporal c-closed graphs, in which if two vertices u and v have at least c common neighbors during a short interval of time, then u and v are adjacent to each other around that time. Our pilot experiments show that several real-world temporal networks are c-closed for rather small values of c. We also study the computational problems of enumerating maximal cliques and other dense subgraphs in temporal c-closed  graphs. A clique in a temporal graph is a subgraph that lasts for a certain period of time, during which every possible edge in the subgraph becomes active often enough; other dense subgraphs are defined similarly. We bound the number of such maximal dense subgraphs  in a temporal c-closed graph that evolves slowly, and thus show that the corresponding enumeration problems admit efficient algorithms; by slow evolution, we mean that between consecutive time-steps, the local change in adjacencies remains small. Our work also adds to a growing body of literature on defining suitable structural parameters for temporal graphs that can be leveraged to design efficient algorithms.</t>
   </si>
   <si>
     <t>10.1017/pan.2023.2</t>
@@ -1551,7 +1551,7 @@
     <t>Kaiqi Yang*,Hang Li*,Hongzhi Wen,Tai-Quan Peng,Jiliang Tang,Hui Liu</t>
   </si>
   <si>
-    <t>反对论文Out of one, many: Using language models to simulate human samples可能利用了捷径特性，且能力难以从宏观细化到个体</t>
+    <t>论文Out of one, many: Using language models to simulate human samples可能利用了捷径特性，且能力难以从宏观细化到个体</t>
   </si>
   <si>
     <t>[AI generated] Proposes a novel social prediction benchmark (Soc-PRF) categorizing features by mutability to rigorously evaluate LLMs and reveals their reliance on input shortcuts.
@@ -1833,7 +1833,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1850,6 +1850,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EEFF"/>
         <bgColor rgb="FFD9EEFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -2184,7 +2190,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2208,16 +2214,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2226,89 +2232,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2317,6 +2323,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2665,8 +2672,8 @@
   <sheetPr/>
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4543,7 +4550,7 @@
         <v>393</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>394</v>
@@ -4570,7 +4577,7 @@
         <v>44</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>401</v>
@@ -4588,7 +4595,7 @@
         <v>42</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>44</v>
+        <v>404</v>
       </c>
       <c r="T25" s="3" t="b">
         <v>1</v>
@@ -4597,7 +4604,7 @@
         <v>44</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="W25" s="3" t="b">
         <v>0</v>
@@ -4610,79 +4617,79 @@
       </c>
     </row>
     <row r="26" spans="1:25">
-      <c r="A26" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="C26" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="G26" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="H26" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="I26" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="J26" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N26" s="3" t="s">
+      <c r="K26" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="L26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="N26" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q26" s="3" t="s">
+      <c r="O26" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="P26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="R26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="T26" s="3" t="b">
+      <c r="S26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T26" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="W26" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y26" s="3" t="b">
+      <c r="U26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="W26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y26" s="4" t="b">
         <v>0</v>
       </c>
     </row>
